--- a/Elicitations/Elicitations.xlsx
+++ b/Elicitations/Elicitations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/.shortcut-targets-by-id/1Wid6qZFUIaNGhhY-jObhH0MzMkW03Wt7/Teheran or general Persian Armenian/2021 kickstart /Archive/iranian_armenian/Elicitations/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Hovsep/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2A08C82-7699-A742-B8F2-E63EB39C4EAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04BFE101-ACE9-E64D-A875-D5ECC87929DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="460" windowWidth="28040" windowHeight="15460" xr2:uid="{95551290-3AAC-454D-8AA9-90E8C8A0AA49}"/>
+    <workbookView xWindow="1980" yWindow="460" windowWidth="28040" windowHeight="15460" xr2:uid="{95551290-3AAC-454D-8AA9-90E8C8A0AA49}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10408" uniqueCount="3951">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12077" uniqueCount="4584">
   <si>
     <t>NK_12_16_21_001</t>
   </si>
@@ -11888,6 +11888,1905 @@
   </si>
   <si>
     <t>կուրախացնի</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_185</t>
+  </si>
+  <si>
+    <t>վեց</t>
+  </si>
+  <si>
+    <t>six</t>
+  </si>
+  <si>
+    <t>vet͡sʰ</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_184</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_183</t>
+  </si>
+  <si>
+    <t>վեցերորդ</t>
+  </si>
+  <si>
+    <t>sixth</t>
+  </si>
+  <si>
+    <t>six-ORD</t>
+  </si>
+  <si>
+    <t>vet͡sʰ-eɻoɻtʰ</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_182</t>
+  </si>
+  <si>
+    <t>վաթսուներորդ</t>
+  </si>
+  <si>
+    <t>sixtieth</t>
+  </si>
+  <si>
+    <t>sixty-ORD</t>
+  </si>
+  <si>
+    <t>vɒt͡sʰun-eɻoɻtʰ</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_181</t>
+  </si>
+  <si>
+    <t>վաթսուն</t>
+  </si>
+  <si>
+    <t>sixty</t>
+  </si>
+  <si>
+    <t>vat͡sʰun</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_180</t>
+  </si>
+  <si>
+    <t>ութսուն</t>
+  </si>
+  <si>
+    <t>eighty</t>
+  </si>
+  <si>
+    <t>utʰsun</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_179</t>
+  </si>
+  <si>
+    <t>ութ</t>
+  </si>
+  <si>
+    <t>eight</t>
+  </si>
+  <si>
+    <t>utʰ</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_178</t>
+  </si>
+  <si>
+    <t>ութսուներորդ</t>
+  </si>
+  <si>
+    <t>eightieth</t>
+  </si>
+  <si>
+    <t>eighty-ORD</t>
+  </si>
+  <si>
+    <t>utʰ-sun-eɻoɻtʰ</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_177</t>
+  </si>
+  <si>
+    <t>ութերորդ</t>
+  </si>
+  <si>
+    <t>utʰ-eɻoɻtʰ</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_176</t>
+  </si>
+  <si>
+    <t>չորս</t>
+  </si>
+  <si>
+    <t>four</t>
+  </si>
+  <si>
+    <t>t͡ʃʰoɻs</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_175</t>
+  </si>
+  <si>
+    <t>չորրորդ</t>
+  </si>
+  <si>
+    <t>fourth</t>
+  </si>
+  <si>
+    <t>four-ORD</t>
+  </si>
+  <si>
+    <t>t͡ʃʰo-ɻoɻtʰ</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_174</t>
+  </si>
+  <si>
+    <t>տաս</t>
+  </si>
+  <si>
+    <t>ten</t>
+  </si>
+  <si>
+    <t>tɒs</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_173</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_172</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_171</t>
+  </si>
+  <si>
+    <t>տասվեց</t>
+  </si>
+  <si>
+    <t>sixteen</t>
+  </si>
+  <si>
+    <t>ten-six</t>
+  </si>
+  <si>
+    <t>tɒs-vet͡sʰ</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_170</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_169</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_168</t>
+  </si>
+  <si>
+    <t>տասվեցերորդ</t>
+  </si>
+  <si>
+    <t>sixteenth</t>
+  </si>
+  <si>
+    <t>ten-six-ORD</t>
+  </si>
+  <si>
+    <t>tɒs-vet͡sʰ-eɻoɻtʰ</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_167</t>
+  </si>
+  <si>
+    <t>տասութ</t>
+  </si>
+  <si>
+    <t>eighteen</t>
+  </si>
+  <si>
+    <t>ten-eight</t>
+  </si>
+  <si>
+    <t>tɒs-utʰ</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_166</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_165</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_164</t>
+  </si>
+  <si>
+    <t>տասութերորդ</t>
+  </si>
+  <si>
+    <t>eighteenth</t>
+  </si>
+  <si>
+    <t>ten-eight-ORD</t>
+  </si>
+  <si>
+    <t>tɒs-utʰ-eɻoɻtʰ</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_163</t>
+  </si>
+  <si>
+    <t>տասչորս</t>
+  </si>
+  <si>
+    <t>fourteen</t>
+  </si>
+  <si>
+    <t>ten-four</t>
+  </si>
+  <si>
+    <t>tɒs-t͡ʃʰoɻs</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_162</t>
+  </si>
+  <si>
+    <t>halted speech</t>
+  </si>
+  <si>
+    <t>տասչորրորդ</t>
+  </si>
+  <si>
+    <t>fourteenth</t>
+  </si>
+  <si>
+    <t>ten-four-ORD</t>
+  </si>
+  <si>
+    <t>tɒs-t͡ʃʰo-ɻoɻtʰ</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_161</t>
+  </si>
+  <si>
+    <t>տասնվեց</t>
+  </si>
+  <si>
+    <t>ten-DEF-CON-six</t>
+  </si>
+  <si>
+    <t>tɒs-n-ə-vet͡sʰ</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_160</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_159</t>
+  </si>
+  <si>
+    <t>տասնվեցերորդ</t>
+  </si>
+  <si>
+    <t>ten-DEF-CON-six-ORD</t>
+  </si>
+  <si>
+    <t>tɒs-n-ə-vet͡sʰ-eɻoɻtʰ</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_158</t>
+  </si>
+  <si>
+    <t>տասնութ</t>
+  </si>
+  <si>
+    <t>ten-DEF-CON-eight</t>
+  </si>
+  <si>
+    <t>tɒs-n-ə-utʰ</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_157</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_156</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_155</t>
+  </si>
+  <si>
+    <t>տասնութերորդ</t>
+  </si>
+  <si>
+    <t>ten-DEF-CON-eight-ORD</t>
+  </si>
+  <si>
+    <t>tɒs-n-ə-utʰ-eɻoɻtʰ</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_154</t>
+  </si>
+  <si>
+    <t>տասնչորս</t>
+  </si>
+  <si>
+    <t>ten-DEF-CON-four</t>
+  </si>
+  <si>
+    <t>tɒs-n-ə-t͡ʃʰoɻs</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_153</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_152</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_151</t>
+  </si>
+  <si>
+    <t>տասնչորրորդ</t>
+  </si>
+  <si>
+    <t>ten-DEF-CON-four-ORD</t>
+  </si>
+  <si>
+    <t>tɒs-n-ə-t͡ʃʰo-ɻoɻtʰ</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_150</t>
+  </si>
+  <si>
+    <t>տասնմէկ</t>
+  </si>
+  <si>
+    <t>eleven</t>
+  </si>
+  <si>
+    <t>ten-DEF-CON-one</t>
+  </si>
+  <si>
+    <t>tɒs-n-ə-mek</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_149</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_148</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_147</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_146</t>
+  </si>
+  <si>
+    <t>տասնմէկերորդ</t>
+  </si>
+  <si>
+    <t>eleventh</t>
+  </si>
+  <si>
+    <t>ten-DEF-CON-one-ORD</t>
+  </si>
+  <si>
+    <t>tɒs-n-ə-mek-eɻoɻtʰ</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_145</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_144</t>
+  </si>
+  <si>
+    <t>տասնեօթ</t>
+  </si>
+  <si>
+    <t>seventeen</t>
+  </si>
+  <si>
+    <t>ten-DEF-CON-seven</t>
+  </si>
+  <si>
+    <t>tɒs-n-ə-jotʰ</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_143</t>
+  </si>
+  <si>
+    <t>տասնեօթերորդ</t>
+  </si>
+  <si>
+    <t>seventeenth</t>
+  </si>
+  <si>
+    <t>ten-DEF-CON-seven-ORD</t>
+  </si>
+  <si>
+    <t>tɒs-n-ə-jotʰ-eɻoɻtʰ</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_142</t>
+  </si>
+  <si>
+    <t>տասներեք</t>
+  </si>
+  <si>
+    <t>thirteen</t>
+  </si>
+  <si>
+    <t>ten-DEF-CON-three</t>
+  </si>
+  <si>
+    <t>tɒs-n-ə-jeɻekʰ</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_141</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_140</t>
+  </si>
+  <si>
+    <t>տասներկրորդ</t>
+  </si>
+  <si>
+    <t>twelfth</t>
+  </si>
+  <si>
+    <t>ten-DEF-CON-two-ORD</t>
+  </si>
+  <si>
+    <t>tɒs-n-ə-jek-ɻoɻtʰ</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_139</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_138</t>
+  </si>
+  <si>
+    <t>տասներրորդ</t>
+  </si>
+  <si>
+    <t>thirteenth</t>
+  </si>
+  <si>
+    <t>ten-DEF-CON-three-ORD</t>
+  </si>
+  <si>
+    <t>tɒs-n-ə-je-ɻoɻtʰ</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_137</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_136</t>
+  </si>
+  <si>
+    <t>տասնիննը</t>
+  </si>
+  <si>
+    <t>nineteen</t>
+  </si>
+  <si>
+    <t>ten-DEF-CON-nine-DEF</t>
+  </si>
+  <si>
+    <t>tɒs-n-ə-inn-ə</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_135</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_134</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_133</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_132</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_131</t>
+  </si>
+  <si>
+    <t>տասնիններորդ</t>
+  </si>
+  <si>
+    <t>nineteenth</t>
+  </si>
+  <si>
+    <t>ten-DEF-CON-nine-ORD</t>
+  </si>
+  <si>
+    <t>tɒs-n-ə-inn-eɻoɻtʰ</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_130</t>
+  </si>
+  <si>
+    <t>տասնհինգ</t>
+  </si>
+  <si>
+    <t>fifteen</t>
+  </si>
+  <si>
+    <t>ten-DEF-CON-five</t>
+  </si>
+  <si>
+    <t>tɒs-n-ə-hiŋɡ</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_129</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_128</t>
+  </si>
+  <si>
+    <t>տասնհինգերորդ</t>
+  </si>
+  <si>
+    <t>fifteenth</t>
+  </si>
+  <si>
+    <t>ten-DEF-CON-five-ORD</t>
+  </si>
+  <si>
+    <t>tɒs-n-ə-hiŋɡ-eɻoɻtʰ</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_127</t>
+  </si>
+  <si>
+    <t>տասէրկու</t>
+  </si>
+  <si>
+    <t>twelve</t>
+  </si>
+  <si>
+    <t>ten-DEF-CON-two</t>
+  </si>
+  <si>
+    <t>tɒs-n-ə-eɻku</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_126</t>
+  </si>
+  <si>
+    <t>տասմէկ</t>
+  </si>
+  <si>
+    <t>ten-one</t>
+  </si>
+  <si>
+    <t>tɒs-mek</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_125</t>
+  </si>
+  <si>
+    <t>տասմէկերորդ</t>
+  </si>
+  <si>
+    <t>ten-one-ORD</t>
+  </si>
+  <si>
+    <t>tɒs-mek-eɻoɻtʰ</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_124</t>
+  </si>
+  <si>
+    <t>տասեօթ</t>
+  </si>
+  <si>
+    <t>ten-seven</t>
+  </si>
+  <si>
+    <t>tɒs-jotʰ</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_123</t>
+  </si>
+  <si>
+    <t>տասեօթերորդ</t>
+  </si>
+  <si>
+    <t>ten-seven-ORD</t>
+  </si>
+  <si>
+    <t>tɒs-jotʰ-eɻoɻtʰ</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_122</t>
+  </si>
+  <si>
+    <t>տասերեք</t>
+  </si>
+  <si>
+    <t>ten-three</t>
+  </si>
+  <si>
+    <t>tɒs-jeɻekʰ</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_121</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_120</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_119</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_118</t>
+  </si>
+  <si>
+    <t>տասերկորդ</t>
+  </si>
+  <si>
+    <t>ten-two-ORD</t>
+  </si>
+  <si>
+    <t>tɒs-jek-ɻoɻtʰ</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_117</t>
+  </si>
+  <si>
+    <t>տասերրորդ</t>
+  </si>
+  <si>
+    <t>ten-three-ORD</t>
+  </si>
+  <si>
+    <t>tɒs-je-ɻoɻtʰ</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_116</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_115</t>
+  </si>
+  <si>
+    <t>տասիննը</t>
+  </si>
+  <si>
+    <t>ten-nine-DEF</t>
+  </si>
+  <si>
+    <t>tɒs-inn-ə</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_114</t>
+  </si>
+  <si>
+    <t>տասիններորդ</t>
+  </si>
+  <si>
+    <t>ten-nine-ORD</t>
+  </si>
+  <si>
+    <t>tɒs-inn-eɻoɻtʰ</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_113</t>
+  </si>
+  <si>
+    <t>տասհինգ</t>
+  </si>
+  <si>
+    <t>ten-five</t>
+  </si>
+  <si>
+    <t>tɒs-hiŋɡ</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_112</t>
+  </si>
+  <si>
+    <t>տասհինգերորդ</t>
+  </si>
+  <si>
+    <t>ten-five-ORD</t>
+  </si>
+  <si>
+    <t>tɒs-hiŋɡ-eɻoɻtʰ</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_111</t>
+  </si>
+  <si>
+    <t>տասերորդ</t>
+  </si>
+  <si>
+    <t>tenth</t>
+  </si>
+  <si>
+    <t>ten-ORD</t>
+  </si>
+  <si>
+    <t>tɒs-eɻoɻtʰ</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_110</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_109</t>
+  </si>
+  <si>
+    <t>ten-two</t>
+  </si>
+  <si>
+    <t>tɒs-eɻku</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_108</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_107</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_106</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_105</t>
+  </si>
+  <si>
+    <t>tɑs-n-ə-jotʰ</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_104</t>
+  </si>
+  <si>
+    <t>մէկ</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>mek</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_103</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_102</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_101</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_100</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_99</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_98</t>
+  </si>
+  <si>
+    <t>քսան</t>
+  </si>
+  <si>
+    <t>twenty</t>
+  </si>
+  <si>
+    <t>kʰsɒn</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_97</t>
+  </si>
+  <si>
+    <t>քսան վեց</t>
+  </si>
+  <si>
+    <t>twenty-six</t>
+  </si>
+  <si>
+    <t>kʰsɒn-vet͡sʰ</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_96</t>
+  </si>
+  <si>
+    <t>քսան վեցերորդ</t>
+  </si>
+  <si>
+    <t>twenty-sixth</t>
+  </si>
+  <si>
+    <t>twenty-six-ORD</t>
+  </si>
+  <si>
+    <t>kʰsɒn-vet͡sʰ-eɻoɻtʰ</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_95</t>
+  </si>
+  <si>
+    <t>քսան ութ</t>
+  </si>
+  <si>
+    <t>twenty-eight</t>
+  </si>
+  <si>
+    <t>kʰsɒn-utʰ</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_94</t>
+  </si>
+  <si>
+    <t>քսան ութերորդ</t>
+  </si>
+  <si>
+    <t>twenty-eighth</t>
+  </si>
+  <si>
+    <t>twenty-eight-ORD</t>
+  </si>
+  <si>
+    <t>kʰsɒn-utʰ-eɻoɻtʰ</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_93</t>
+  </si>
+  <si>
+    <t>քսան չորս</t>
+  </si>
+  <si>
+    <t>twenty-four</t>
+  </si>
+  <si>
+    <t>kʰsɒn-t͡ʃʰoɻs</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_92</t>
+  </si>
+  <si>
+    <t>քսան չորրորդ</t>
+  </si>
+  <si>
+    <t>twenty-fourth</t>
+  </si>
+  <si>
+    <t>twenty-four-ORD</t>
+  </si>
+  <si>
+    <t>kʰsɒn-t͡ʃʰo-ɻoɻtʰ</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_91</t>
+  </si>
+  <si>
+    <t>քսան մէկ</t>
+  </si>
+  <si>
+    <t>twenty-one</t>
+  </si>
+  <si>
+    <t>kʰsɒn-mek</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_90</t>
+  </si>
+  <si>
+    <t>քսան մէկերորդ</t>
+  </si>
+  <si>
+    <t>twenty-first</t>
+  </si>
+  <si>
+    <t>twenty-one-ORD</t>
+  </si>
+  <si>
+    <t>kʰsɒn-mek-eɻoɻtʰ</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_89</t>
+  </si>
+  <si>
+    <t>քսան եօթ</t>
+  </si>
+  <si>
+    <t>twenty-seven</t>
+  </si>
+  <si>
+    <t>kʰsɒn-jotʰ</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_88</t>
+  </si>
+  <si>
+    <t>քսան եօթերորդ</t>
+  </si>
+  <si>
+    <t>twenty-seventh</t>
+  </si>
+  <si>
+    <t>twenty-seven-ORD</t>
+  </si>
+  <si>
+    <t>kʰsɒn-jotʰ-eɻoɻtʰ</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_87</t>
+  </si>
+  <si>
+    <t>քսան երեք</t>
+  </si>
+  <si>
+    <t>twenty-three</t>
+  </si>
+  <si>
+    <t>kʰsɒn-jeɻekʰ</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_86</t>
+  </si>
+  <si>
+    <t>քսան երկրորդ</t>
+  </si>
+  <si>
+    <t>twenty-second</t>
+  </si>
+  <si>
+    <t>twenty-two-ORD</t>
+  </si>
+  <si>
+    <t>kʰsɒn-jek-ɻoɻtʰ</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_85</t>
+  </si>
+  <si>
+    <t>քսան երրորդ</t>
+  </si>
+  <si>
+    <t>twenty-third</t>
+  </si>
+  <si>
+    <t>twenty-three-ORD</t>
+  </si>
+  <si>
+    <t>kʰsɒn-je-ɻoɻtʰ</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_84</t>
+  </si>
+  <si>
+    <t>քսան իննը</t>
+  </si>
+  <si>
+    <t>twenty-nine</t>
+  </si>
+  <si>
+    <t>twenty-nine-DEF</t>
+  </si>
+  <si>
+    <t>kʰsɒn-inn-ə</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_83</t>
+  </si>
+  <si>
+    <t>քսան իններորդ</t>
+  </si>
+  <si>
+    <t>twenty-ninth</t>
+  </si>
+  <si>
+    <t>twenty-nine-ORD</t>
+  </si>
+  <si>
+    <t>kʰsɒn-inn-eɻoɻtʰ</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_82</t>
+  </si>
+  <si>
+    <t>քսան հինգ</t>
+  </si>
+  <si>
+    <t>twenty-five</t>
+  </si>
+  <si>
+    <t>kʰsɒn-hiŋɡ</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_81</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_80</t>
+  </si>
+  <si>
+    <t>քսան հինգերորդ</t>
+  </si>
+  <si>
+    <t>twenty-fifth</t>
+  </si>
+  <si>
+    <t>twenty-five-ORD</t>
+  </si>
+  <si>
+    <t>kʰsɒn-hiŋɡ-eɻoɻtʰ</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_79</t>
+  </si>
+  <si>
+    <t>քսաներորդ</t>
+  </si>
+  <si>
+    <t>twentieth</t>
+  </si>
+  <si>
+    <t>twenty-ORD</t>
+  </si>
+  <si>
+    <t>kʰsɒn-eɻoɻtʰ</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_78</t>
+  </si>
+  <si>
+    <t>քսան էրկու</t>
+  </si>
+  <si>
+    <t>twenty-two</t>
+  </si>
+  <si>
+    <t>kʰsɒn-eɻku</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_77</t>
+  </si>
+  <si>
+    <t>քառասուն</t>
+  </si>
+  <si>
+    <t>forty</t>
+  </si>
+  <si>
+    <t>kʰɒrɒsun</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_76</t>
+  </si>
+  <si>
+    <t>քառասուն վեց</t>
+  </si>
+  <si>
+    <t>forty-six</t>
+  </si>
+  <si>
+    <t>kʰɒrɒsun-vet͡sʰ</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_75</t>
+  </si>
+  <si>
+    <t>քառասուն վեցերորդ</t>
+  </si>
+  <si>
+    <t>forty-sixth</t>
+  </si>
+  <si>
+    <t>forty-sixth-ORD</t>
+  </si>
+  <si>
+    <t>kʰɒrɒsun-vet͡sʰ-eɻoɻtʰ</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_74</t>
+  </si>
+  <si>
+    <t>քառասուն ութ</t>
+  </si>
+  <si>
+    <t>forty-eight</t>
+  </si>
+  <si>
+    <t>kʰɒrɒsun-utʰ</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_73</t>
+  </si>
+  <si>
+    <t>քառասուն ութերորդ</t>
+  </si>
+  <si>
+    <t>forty-eighth</t>
+  </si>
+  <si>
+    <t>forty-eight-ORD</t>
+  </si>
+  <si>
+    <t>kʰɒrɒsun-utʰ-eɻoɻtʰ</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_72</t>
+  </si>
+  <si>
+    <t>kʰɒrɒsun-t͡ʃʰoɻs</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_71</t>
+  </si>
+  <si>
+    <t>քառասուն չորրորդ</t>
+  </si>
+  <si>
+    <t>forty-fourth</t>
+  </si>
+  <si>
+    <t>forty-four-ORD</t>
+  </si>
+  <si>
+    <t>kʰɒrɒsun-t͡ʃʰo-ɻoɻtʰ</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_70</t>
+  </si>
+  <si>
+    <t>kʰɒrɒsun-mek</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_69</t>
+  </si>
+  <si>
+    <t>քառասուն մէկերորդ</t>
+  </si>
+  <si>
+    <t>forty-first</t>
+  </si>
+  <si>
+    <t>forty-one-ORD</t>
+  </si>
+  <si>
+    <t>kʰɒrɒsun-mek-eɻoɻtʰ</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_68</t>
+  </si>
+  <si>
+    <t>քառասուն եօթ</t>
+  </si>
+  <si>
+    <t>forty-seven</t>
+  </si>
+  <si>
+    <t>kʰɒrɒsun-jotʰ</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_67</t>
+  </si>
+  <si>
+    <t>քառասուն եօթերորդ</t>
+  </si>
+  <si>
+    <t>forty-seventh</t>
+  </si>
+  <si>
+    <t>forty-seventh-ORD</t>
+  </si>
+  <si>
+    <t>kʰɒrɒsun-jotʰ-eɻoɻtʰ</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_66</t>
+  </si>
+  <si>
+    <t>kʰɒrɒsun-jeɻekʰ</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_65</t>
+  </si>
+  <si>
+    <t>քառասուն երկրորդ</t>
+  </si>
+  <si>
+    <t>forty-second</t>
+  </si>
+  <si>
+    <t>forty-two-ORD</t>
+  </si>
+  <si>
+    <t>kʰɒrɒsun-jek-ɻotʰ</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_64</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_63</t>
+  </si>
+  <si>
+    <t>քառասուն երրորդ</t>
+  </si>
+  <si>
+    <t>forty-third</t>
+  </si>
+  <si>
+    <t>forty-three-ORD</t>
+  </si>
+  <si>
+    <t>kʰɒrɒsun-je-ɻoɻtʰ</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_62</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_61</t>
+  </si>
+  <si>
+    <t>քառասուն իննը</t>
+  </si>
+  <si>
+    <t>forty-nine</t>
+  </si>
+  <si>
+    <t>kʰɒrɒsun-inn-ə</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_60</t>
+  </si>
+  <si>
+    <t>քառասուն իններորդ</t>
+  </si>
+  <si>
+    <t>forty-ninth</t>
+  </si>
+  <si>
+    <t>forty-nine-ORD</t>
+  </si>
+  <si>
+    <t>kʰɒrɒsun-inn-eɻoɻtʰ</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_59</t>
+  </si>
+  <si>
+    <t>քառասուն հինգ</t>
+  </si>
+  <si>
+    <t>forty-five</t>
+  </si>
+  <si>
+    <t>kʰɒrɒsun-hiŋɡ</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_58</t>
+  </si>
+  <si>
+    <t>քառասուն հինգերորդ</t>
+  </si>
+  <si>
+    <t>forty-fifth</t>
+  </si>
+  <si>
+    <t>forty-five-ORD</t>
+  </si>
+  <si>
+    <t>kʰɒrɒsun-hiŋɡ-eɻoɻtʰ</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_57</t>
+  </si>
+  <si>
+    <t>քառասուներորդ</t>
+  </si>
+  <si>
+    <t>fortieth</t>
+  </si>
+  <si>
+    <t>forty-ORD</t>
+  </si>
+  <si>
+    <t>kʰɒrɒsun-eɻoɻtʰ</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_56</t>
+  </si>
+  <si>
+    <t>kʰɒrɒsun-eɻku</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_55</t>
+  </si>
+  <si>
+    <t>եօթանասուն</t>
+  </si>
+  <si>
+    <t>seventy</t>
+  </si>
+  <si>
+    <t>jotʰɒnɒsun</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_54</t>
+  </si>
+  <si>
+    <t>եօթանասուներորդ</t>
+  </si>
+  <si>
+    <t>seventieth</t>
+  </si>
+  <si>
+    <t>seventy-ORD</t>
+  </si>
+  <si>
+    <t>jotʰɒnɒsun-eɻoɻtʰ</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_53</t>
+  </si>
+  <si>
+    <t>եօթ</t>
+  </si>
+  <si>
+    <t>seven</t>
+  </si>
+  <si>
+    <t>jotʰ</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_52</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_51</t>
+  </si>
+  <si>
+    <t>եօթերորդ</t>
+  </si>
+  <si>
+    <t>seventh</t>
+  </si>
+  <si>
+    <t>seven-ORD</t>
+  </si>
+  <si>
+    <t>jotʰ-eɻoɻtʰ</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_50</t>
+  </si>
+  <si>
+    <t>երեսուն</t>
+  </si>
+  <si>
+    <t>thirty</t>
+  </si>
+  <si>
+    <t>jeɻesun</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_49</t>
+  </si>
+  <si>
+    <t>երեսուն վեց</t>
+  </si>
+  <si>
+    <t>thirty-six</t>
+  </si>
+  <si>
+    <t>jeɻesun-vet͡sʰ</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_48</t>
+  </si>
+  <si>
+    <t>երեսուն վեցերորդ</t>
+  </si>
+  <si>
+    <t>thirty-sixth</t>
+  </si>
+  <si>
+    <t>thirty-six-ORD</t>
+  </si>
+  <si>
+    <t>jeɻesun-vet͡sʰ-eɻoɻtʰ</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_47</t>
+  </si>
+  <si>
+    <t>երեսուն ութ</t>
+  </si>
+  <si>
+    <t>thirty-eight</t>
+  </si>
+  <si>
+    <t>jeɻesun-utʰ</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_46</t>
+  </si>
+  <si>
+    <t>երեսուն ութերորդ</t>
+  </si>
+  <si>
+    <t>thirty-eighth</t>
+  </si>
+  <si>
+    <t>thirty-eight-ORD</t>
+  </si>
+  <si>
+    <t>jeɻesun-utʰ-eɻoɻtʰ</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_45</t>
+  </si>
+  <si>
+    <t>երեսուն չորս</t>
+  </si>
+  <si>
+    <t>thirty-four</t>
+  </si>
+  <si>
+    <t>jeɻesun-t͡ʃʰoɻs</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_44</t>
+  </si>
+  <si>
+    <t>երեսուն չորրորդ</t>
+  </si>
+  <si>
+    <t>thirty-fourth</t>
+  </si>
+  <si>
+    <t>thirty-four-ORD</t>
+  </si>
+  <si>
+    <t>jeɻesun-t͡ʃʰo-ɻoɻtʰ</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_43</t>
+  </si>
+  <si>
+    <t>երեսուն մէկ</t>
+  </si>
+  <si>
+    <t>thirty-one</t>
+  </si>
+  <si>
+    <t>jeɻesun-mek</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_42</t>
+  </si>
+  <si>
+    <t>երեսուն մէկերորդ</t>
+  </si>
+  <si>
+    <t>thirty-first</t>
+  </si>
+  <si>
+    <t>thirty-one-ORD</t>
+  </si>
+  <si>
+    <t>jeɻesun-mek-eɻoɻtʰ</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_41</t>
+  </si>
+  <si>
+    <t>երեսուն եօթ</t>
+  </si>
+  <si>
+    <t>thirty-seven</t>
+  </si>
+  <si>
+    <t>jeɻesun-jotʰ</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_40</t>
+  </si>
+  <si>
+    <t>երեսուն եօթերորդ</t>
+  </si>
+  <si>
+    <t>thirty-seventh</t>
+  </si>
+  <si>
+    <t>thirty-seven-ORD</t>
+  </si>
+  <si>
+    <t>jeɻesun-jotʰ-eɻoɻtʰ</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_39</t>
+  </si>
+  <si>
+    <t>երեսուն երեք</t>
+  </si>
+  <si>
+    <t>thirty-three</t>
+  </si>
+  <si>
+    <t>jeɻesun-jeɻekʰ</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_38</t>
+  </si>
+  <si>
+    <t>երեսուն երկրորդ</t>
+  </si>
+  <si>
+    <t>thirty-second</t>
+  </si>
+  <si>
+    <t>thirty-two-ORD</t>
+  </si>
+  <si>
+    <t>jeɻesun-jek-ɻoɻtʰ</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_37</t>
+  </si>
+  <si>
+    <t>երեսուն երրորդ</t>
+  </si>
+  <si>
+    <t>thirty-third</t>
+  </si>
+  <si>
+    <t>thirty-three-ORD</t>
+  </si>
+  <si>
+    <t>jeɻesun-je-ɻoɻtʰ</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_36</t>
+  </si>
+  <si>
+    <t>երեսուն իննը</t>
+  </si>
+  <si>
+    <t>thirty-nine</t>
+  </si>
+  <si>
+    <t>thirty-nine-DEF</t>
+  </si>
+  <si>
+    <t>jeɻesun-inn-ə</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_35</t>
+  </si>
+  <si>
+    <t>երեսուն իններորդ</t>
+  </si>
+  <si>
+    <t>thirty-ninth</t>
+  </si>
+  <si>
+    <t>thirty-nine-ORD</t>
+  </si>
+  <si>
+    <t>jeɻesun-inn-eɻoɻtʰ</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_34</t>
+  </si>
+  <si>
+    <t>երեսուն հինգ</t>
+  </si>
+  <si>
+    <t>thirty-five</t>
+  </si>
+  <si>
+    <t>jeɻesun-hiŋɡ</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_33</t>
+  </si>
+  <si>
+    <t>երեսուն հինգերորդ</t>
+  </si>
+  <si>
+    <t>thirty-fifth</t>
+  </si>
+  <si>
+    <t>thirty-five-ORD</t>
+  </si>
+  <si>
+    <t>jeɻesun-hiŋɡ-eɻoɻtʰ</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_32</t>
+  </si>
+  <si>
+    <t>երեսուներորդ</t>
+  </si>
+  <si>
+    <t>thirtieth</t>
+  </si>
+  <si>
+    <t>thirty-ORD</t>
+  </si>
+  <si>
+    <t>jeɻesun-eɻoɻtʰ</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_31</t>
+  </si>
+  <si>
+    <t>երեսուն էրկու</t>
+  </si>
+  <si>
+    <t>thirty-two</t>
+  </si>
+  <si>
+    <t>jeɻesun-eɻku</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_30</t>
+  </si>
+  <si>
+    <t>երեք</t>
+  </si>
+  <si>
+    <t>three</t>
+  </si>
+  <si>
+    <t>jeɻekʰ</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_29</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_28</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_27</t>
+  </si>
+  <si>
+    <t>երկրորդ</t>
+  </si>
+  <si>
+    <t>second</t>
+  </si>
+  <si>
+    <t>two-ORD</t>
+  </si>
+  <si>
+    <t>jek-ɻoɻtʰ</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_26</t>
+  </si>
+  <si>
+    <t>երրորդ</t>
+  </si>
+  <si>
+    <t>third</t>
+  </si>
+  <si>
+    <t>three-ORD</t>
+  </si>
+  <si>
+    <t>je-ɻoɻtʰ</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_25</t>
+  </si>
+  <si>
+    <t>իննսուն</t>
+  </si>
+  <si>
+    <t>ninety</t>
+  </si>
+  <si>
+    <t>innəsun</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_24</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_23</t>
+  </si>
+  <si>
+    <t>իննսուներորդ</t>
+  </si>
+  <si>
+    <t>ninetieth</t>
+  </si>
+  <si>
+    <t>ninety-ORD</t>
+  </si>
+  <si>
+    <t>innəsun-eɻoɻtʰ</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_22</t>
+  </si>
+  <si>
+    <t>իննը</t>
+  </si>
+  <si>
+    <t>nine</t>
+  </si>
+  <si>
+    <t>nine-DEF</t>
+  </si>
+  <si>
+    <t>inn-ə</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_21</t>
+  </si>
+  <si>
+    <t>իններորդ</t>
+  </si>
+  <si>
+    <t>ninth</t>
+  </si>
+  <si>
+    <t>nine-ORD</t>
+  </si>
+  <si>
+    <t>inn-eɻoɻtʰ</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_20</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_19</t>
+  </si>
+  <si>
+    <t>յիսուն</t>
+  </si>
+  <si>
+    <t>fifty</t>
+  </si>
+  <si>
+    <t>hit͡sʰun</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_18</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_17</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_16</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_15</t>
+  </si>
+  <si>
+    <t>յիսուներորդ</t>
+  </si>
+  <si>
+    <t>fiftieth</t>
+  </si>
+  <si>
+    <t>fifty-ORD</t>
+  </si>
+  <si>
+    <t>hit͡sʰun-eɻoɻtʰ</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_14</t>
+  </si>
+  <si>
+    <t>հինգ</t>
+  </si>
+  <si>
+    <t>five</t>
+  </si>
+  <si>
+    <t>hiŋɡ</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_13</t>
+  </si>
+  <si>
+    <t>հինգերորդ</t>
+  </si>
+  <si>
+    <t>fifth</t>
+  </si>
+  <si>
+    <t>five-ORD</t>
+  </si>
+  <si>
+    <t>hiŋɡ-eɻoɻtʰ</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_12</t>
+  </si>
+  <si>
+    <t>հազար</t>
+  </si>
+  <si>
+    <t>thousand</t>
+  </si>
+  <si>
+    <t>hɒzɒɻ</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_11</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_10</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_9</t>
+  </si>
+  <si>
+    <t>հազարերորդ</t>
+  </si>
+  <si>
+    <t>thousandth</t>
+  </si>
+  <si>
+    <t>thousand-ORD</t>
+  </si>
+  <si>
+    <t>hɒzɒɻ-eɻoɻtʰ</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_8</t>
+  </si>
+  <si>
+    <t>հարուր</t>
+  </si>
+  <si>
+    <t>hundred</t>
+  </si>
+  <si>
+    <t>hɒɻuɻ</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_7</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_6</t>
+  </si>
+  <si>
+    <t>հարուրերորդ</t>
+  </si>
+  <si>
+    <t>hundredth</t>
+  </si>
+  <si>
+    <t>hundred-ORD</t>
+  </si>
+  <si>
+    <t>hɒɻuɻ-eɻoɻtʰ</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_5</t>
+  </si>
+  <si>
+    <t>էրկու</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_4</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_3</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_2</t>
+  </si>
+  <si>
+    <t>առաջին</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>ɒrɒt͡ʃʰin</t>
+  </si>
+  <si>
+    <t>NK_08_18_22_1</t>
+  </si>
+  <si>
+    <t>Aug 18 2022</t>
+  </si>
+  <si>
+    <t>NK_08_18_22</t>
   </si>
 </sst>
 </file>
@@ -12245,10 +14144,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F11A3D8-8A9D-0C48-88BA-87006A2A2A84}">
-  <dimension ref="A1:K1148"/>
+  <dimension ref="A1:K1333"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A382" zoomScale="147" zoomScaleNormal="147" workbookViewId="0">
-      <selection activeCell="C398" sqref="A1:K1148"/>
+    <sheetView tabSelected="1" topLeftCell="A1138" zoomScale="147" zoomScaleNormal="147" workbookViewId="0">
+      <selection activeCell="B1148" sqref="A1:K1333"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -50366,6 +52265,6123 @@
         <v>NK_12_16_21_231_χɒʁoʁ</v>
       </c>
     </row>
+    <row r="1149" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1149" t="s">
+        <v>4580</v>
+      </c>
+      <c r="B1149" t="s">
+        <v>4579</v>
+      </c>
+      <c r="C1149" t="s">
+        <v>4579</v>
+      </c>
+      <c r="D1149" t="s">
+        <v>4578</v>
+      </c>
+      <c r="F1149" t="s">
+        <v>4581</v>
+      </c>
+      <c r="G1149" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1149" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1149" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1149" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1149" t="str">
+        <f>CONCATENATE("",F1149,"_",A1149)</f>
+        <v>NK_08_18_22_1_ɒrɒt͡ʃʰin</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1150" t="s">
+        <v>4580</v>
+      </c>
+      <c r="B1150" t="s">
+        <v>4579</v>
+      </c>
+      <c r="C1150" t="s">
+        <v>4579</v>
+      </c>
+      <c r="D1150" t="s">
+        <v>4578</v>
+      </c>
+      <c r="F1150" t="s">
+        <v>4577</v>
+      </c>
+      <c r="G1150" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1150" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1150" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1150" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1150" t="str">
+        <f t="shared" ref="K1150:K1213" si="18">CONCATENATE("",F1150,"_",A1150)</f>
+        <v>NK_08_18_22_2_ɒrɒt͡ʃʰin</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1151" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B1151" t="s">
+        <v>1354</v>
+      </c>
+      <c r="C1151" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D1151" t="s">
+        <v>4574</v>
+      </c>
+      <c r="F1151" t="s">
+        <v>4576</v>
+      </c>
+      <c r="G1151" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1151" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1151" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1151" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1151" t="str">
+        <f t="shared" si="18"/>
+        <v>NK_08_18_22_3_eɻku</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1152" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B1152" t="s">
+        <v>1354</v>
+      </c>
+      <c r="C1152" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D1152" t="s">
+        <v>4574</v>
+      </c>
+      <c r="F1152" t="s">
+        <v>4575</v>
+      </c>
+      <c r="G1152" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1152" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1152" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1152" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1152" t="str">
+        <f t="shared" si="18"/>
+        <v>NK_08_18_22_4_eɻku</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1153" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B1153" t="s">
+        <v>1354</v>
+      </c>
+      <c r="C1153" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D1153" t="s">
+        <v>4574</v>
+      </c>
+      <c r="F1153" t="s">
+        <v>4573</v>
+      </c>
+      <c r="G1153" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1153" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1153" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1153" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1153" t="str">
+        <f t="shared" si="18"/>
+        <v>NK_08_18_22_5_eɻku</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1154" t="s">
+        <v>4572</v>
+      </c>
+      <c r="B1154" t="s">
+        <v>4571</v>
+      </c>
+      <c r="C1154" t="s">
+        <v>4570</v>
+      </c>
+      <c r="D1154" t="s">
+        <v>4569</v>
+      </c>
+      <c r="F1154" t="s">
+        <v>4568</v>
+      </c>
+      <c r="G1154" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1154" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1154" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1154" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1154" t="str">
+        <f t="shared" si="18"/>
+        <v>NK_08_18_22_6_hɒɻuɻ-eɻoɻtʰ</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1155" t="s">
+        <v>4566</v>
+      </c>
+      <c r="B1155" t="s">
+        <v>4565</v>
+      </c>
+      <c r="C1155" t="s">
+        <v>4565</v>
+      </c>
+      <c r="D1155" t="s">
+        <v>4564</v>
+      </c>
+      <c r="F1155" t="s">
+        <v>4567</v>
+      </c>
+      <c r="G1155" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1155" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1155" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1155" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1155" t="str">
+        <f t="shared" si="18"/>
+        <v>NK_08_18_22_7_hɒɻuɻ</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1156" t="s">
+        <v>4566</v>
+      </c>
+      <c r="B1156" t="s">
+        <v>4565</v>
+      </c>
+      <c r="C1156" t="s">
+        <v>4565</v>
+      </c>
+      <c r="D1156" t="s">
+        <v>4564</v>
+      </c>
+      <c r="F1156" t="s">
+        <v>4563</v>
+      </c>
+      <c r="G1156" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1156" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1156" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1156" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1156" t="str">
+        <f t="shared" si="18"/>
+        <v>NK_08_18_22_8_hɒɻuɻ</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1157" t="s">
+        <v>4562</v>
+      </c>
+      <c r="B1157" t="s">
+        <v>4561</v>
+      </c>
+      <c r="C1157" t="s">
+        <v>4560</v>
+      </c>
+      <c r="D1157" t="s">
+        <v>4559</v>
+      </c>
+      <c r="F1157" t="s">
+        <v>4558</v>
+      </c>
+      <c r="G1157" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1157" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1157" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1157" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1157" t="str">
+        <f t="shared" si="18"/>
+        <v>NK_08_18_22_9_hɒzɒɻ-eɻoɻtʰ</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1158" t="s">
+        <v>4555</v>
+      </c>
+      <c r="B1158" t="s">
+        <v>4554</v>
+      </c>
+      <c r="C1158" t="s">
+        <v>4554</v>
+      </c>
+      <c r="D1158" t="s">
+        <v>4553</v>
+      </c>
+      <c r="F1158" t="s">
+        <v>4557</v>
+      </c>
+      <c r="G1158" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1158" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1158" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1158" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1158" t="str">
+        <f t="shared" si="18"/>
+        <v>NK_08_18_22_10_hɒzɒɻ</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1159" t="s">
+        <v>4555</v>
+      </c>
+      <c r="B1159" t="s">
+        <v>4554</v>
+      </c>
+      <c r="C1159" t="s">
+        <v>4554</v>
+      </c>
+      <c r="D1159" t="s">
+        <v>4553</v>
+      </c>
+      <c r="F1159" t="s">
+        <v>4556</v>
+      </c>
+      <c r="G1159" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1159" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1159" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1159" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1159" t="str">
+        <f t="shared" si="18"/>
+        <v>NK_08_18_22_11_hɒzɒɻ</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1160" t="s">
+        <v>4555</v>
+      </c>
+      <c r="B1160" t="s">
+        <v>4554</v>
+      </c>
+      <c r="C1160" t="s">
+        <v>4554</v>
+      </c>
+      <c r="D1160" t="s">
+        <v>4553</v>
+      </c>
+      <c r="F1160" t="s">
+        <v>4552</v>
+      </c>
+      <c r="G1160" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1160" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1160" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1160" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1160" t="str">
+        <f t="shared" si="18"/>
+        <v>NK_08_18_22_12_hɒzɒɻ</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1161" t="s">
+        <v>4551</v>
+      </c>
+      <c r="B1161" t="s">
+        <v>4550</v>
+      </c>
+      <c r="C1161" t="s">
+        <v>4549</v>
+      </c>
+      <c r="D1161" t="s">
+        <v>4548</v>
+      </c>
+      <c r="F1161" t="s">
+        <v>4547</v>
+      </c>
+      <c r="G1161" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1161" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1161" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1161" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1161" t="str">
+        <f t="shared" si="18"/>
+        <v>NK_08_18_22_13_hiŋɡ-eɻoɻtʰ</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1162" t="s">
+        <v>4546</v>
+      </c>
+      <c r="B1162" t="s">
+        <v>4545</v>
+      </c>
+      <c r="C1162" t="s">
+        <v>4545</v>
+      </c>
+      <c r="D1162" t="s">
+        <v>4544</v>
+      </c>
+      <c r="F1162" t="s">
+        <v>4543</v>
+      </c>
+      <c r="G1162" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1162" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1162" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1162" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1162" t="str">
+        <f t="shared" si="18"/>
+        <v>NK_08_18_22_14_hiŋɡ</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1163" t="s">
+        <v>4542</v>
+      </c>
+      <c r="B1163" t="s">
+        <v>4541</v>
+      </c>
+      <c r="C1163" t="s">
+        <v>4540</v>
+      </c>
+      <c r="D1163" t="s">
+        <v>4539</v>
+      </c>
+      <c r="F1163" t="s">
+        <v>4538</v>
+      </c>
+      <c r="G1163" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1163" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1163" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1163" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1163" t="str">
+        <f t="shared" si="18"/>
+        <v>NK_08_18_22_15_hit͡sʰun-eɻoɻtʰ</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1164" t="s">
+        <v>4534</v>
+      </c>
+      <c r="B1164" t="s">
+        <v>4533</v>
+      </c>
+      <c r="C1164" t="s">
+        <v>4533</v>
+      </c>
+      <c r="D1164" t="s">
+        <v>4532</v>
+      </c>
+      <c r="F1164" t="s">
+        <v>4537</v>
+      </c>
+      <c r="G1164" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1164" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1164" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1164" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1164" t="str">
+        <f t="shared" si="18"/>
+        <v>NK_08_18_22_16_hit͡sʰun</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1165" t="s">
+        <v>4534</v>
+      </c>
+      <c r="B1165" t="s">
+        <v>4533</v>
+      </c>
+      <c r="C1165" t="s">
+        <v>4533</v>
+      </c>
+      <c r="D1165" t="s">
+        <v>4532</v>
+      </c>
+      <c r="F1165" t="s">
+        <v>4536</v>
+      </c>
+      <c r="G1165" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1165" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1165" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1165" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1165" t="str">
+        <f t="shared" si="18"/>
+        <v>NK_08_18_22_17_hit͡sʰun</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1166" t="s">
+        <v>4534</v>
+      </c>
+      <c r="B1166" t="s">
+        <v>4533</v>
+      </c>
+      <c r="C1166" t="s">
+        <v>4533</v>
+      </c>
+      <c r="D1166" t="s">
+        <v>4532</v>
+      </c>
+      <c r="F1166" t="s">
+        <v>4535</v>
+      </c>
+      <c r="G1166" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1166" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1166" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1166" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1166" t="str">
+        <f t="shared" si="18"/>
+        <v>NK_08_18_22_18_hit͡sʰun</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1167" t="s">
+        <v>4534</v>
+      </c>
+      <c r="B1167" t="s">
+        <v>4533</v>
+      </c>
+      <c r="C1167" t="s">
+        <v>4533</v>
+      </c>
+      <c r="D1167" t="s">
+        <v>4532</v>
+      </c>
+      <c r="F1167" t="s">
+        <v>4531</v>
+      </c>
+      <c r="G1167" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1167" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1167" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1167" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1167" t="str">
+        <f t="shared" si="18"/>
+        <v>NK_08_18_22_19_hit͡sʰun</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1168" t="s">
+        <v>4529</v>
+      </c>
+      <c r="B1168" t="s">
+        <v>4528</v>
+      </c>
+      <c r="C1168" t="s">
+        <v>4527</v>
+      </c>
+      <c r="D1168" t="s">
+        <v>4526</v>
+      </c>
+      <c r="F1168" t="s">
+        <v>4530</v>
+      </c>
+      <c r="G1168" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1168" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1168" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1168" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1168" t="str">
+        <f t="shared" si="18"/>
+        <v>NK_08_18_22_20_inn-eɻoɻtʰ</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1169" t="s">
+        <v>4529</v>
+      </c>
+      <c r="B1169" t="s">
+        <v>4528</v>
+      </c>
+      <c r="C1169" t="s">
+        <v>4527</v>
+      </c>
+      <c r="D1169" t="s">
+        <v>4526</v>
+      </c>
+      <c r="F1169" t="s">
+        <v>4525</v>
+      </c>
+      <c r="G1169" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1169" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1169" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1169" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1169" t="str">
+        <f t="shared" si="18"/>
+        <v>NK_08_18_22_21_inn-eɻoɻtʰ</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1170" t="s">
+        <v>4524</v>
+      </c>
+      <c r="B1170" t="s">
+        <v>4523</v>
+      </c>
+      <c r="C1170" t="s">
+        <v>4522</v>
+      </c>
+      <c r="D1170" t="s">
+        <v>4521</v>
+      </c>
+      <c r="F1170" t="s">
+        <v>4520</v>
+      </c>
+      <c r="G1170" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1170" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1170" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1170" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1170" t="str">
+        <f t="shared" si="18"/>
+        <v>NK_08_18_22_22_inn-ə</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1171" t="s">
+        <v>4519</v>
+      </c>
+      <c r="B1171" t="s">
+        <v>4518</v>
+      </c>
+      <c r="C1171" t="s">
+        <v>4517</v>
+      </c>
+      <c r="D1171" t="s">
+        <v>4516</v>
+      </c>
+      <c r="F1171" t="s">
+        <v>4515</v>
+      </c>
+      <c r="G1171" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1171" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1171" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1171" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1171" t="str">
+        <f t="shared" si="18"/>
+        <v>NK_08_18_22_23_innəsun-eɻoɻtʰ</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1172" t="s">
+        <v>4513</v>
+      </c>
+      <c r="B1172" t="s">
+        <v>4512</v>
+      </c>
+      <c r="C1172" t="s">
+        <v>4512</v>
+      </c>
+      <c r="D1172" t="s">
+        <v>4511</v>
+      </c>
+      <c r="F1172" t="s">
+        <v>4514</v>
+      </c>
+      <c r="G1172" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1172" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1172" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1172" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1172" t="str">
+        <f t="shared" si="18"/>
+        <v>NK_08_18_22_24_innəsun</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1173" t="s">
+        <v>4513</v>
+      </c>
+      <c r="B1173" t="s">
+        <v>4512</v>
+      </c>
+      <c r="C1173" t="s">
+        <v>4512</v>
+      </c>
+      <c r="D1173" t="s">
+        <v>4511</v>
+      </c>
+      <c r="F1173" t="s">
+        <v>4510</v>
+      </c>
+      <c r="G1173" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1173" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1173" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1173" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1173" t="str">
+        <f t="shared" si="18"/>
+        <v>NK_08_18_22_25_innəsun</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1174" t="s">
+        <v>4509</v>
+      </c>
+      <c r="B1174" t="s">
+        <v>4508</v>
+      </c>
+      <c r="C1174" t="s">
+        <v>4507</v>
+      </c>
+      <c r="D1174" t="s">
+        <v>4506</v>
+      </c>
+      <c r="F1174" t="s">
+        <v>4505</v>
+      </c>
+      <c r="G1174" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1174" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1174" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1174" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1174" t="str">
+        <f t="shared" si="18"/>
+        <v>NK_08_18_22_26_je-ɻoɻtʰ</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1175" t="s">
+        <v>4504</v>
+      </c>
+      <c r="B1175" t="s">
+        <v>4503</v>
+      </c>
+      <c r="C1175" t="s">
+        <v>4502</v>
+      </c>
+      <c r="D1175" t="s">
+        <v>4501</v>
+      </c>
+      <c r="F1175" t="s">
+        <v>4500</v>
+      </c>
+      <c r="G1175" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1175" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1175" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1175" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1175" t="str">
+        <f t="shared" si="18"/>
+        <v>NK_08_18_22_27_jek-ɻoɻtʰ</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1176" t="s">
+        <v>4497</v>
+      </c>
+      <c r="B1176" t="s">
+        <v>4496</v>
+      </c>
+      <c r="C1176" t="s">
+        <v>4496</v>
+      </c>
+      <c r="D1176" t="s">
+        <v>4495</v>
+      </c>
+      <c r="F1176" t="s">
+        <v>4499</v>
+      </c>
+      <c r="G1176" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1176" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1176" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1176" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1176" t="str">
+        <f t="shared" si="18"/>
+        <v>NK_08_18_22_28_jeɻekʰ</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1177" t="s">
+        <v>4497</v>
+      </c>
+      <c r="B1177" t="s">
+        <v>4496</v>
+      </c>
+      <c r="C1177" t="s">
+        <v>4496</v>
+      </c>
+      <c r="D1177" t="s">
+        <v>4495</v>
+      </c>
+      <c r="F1177" t="s">
+        <v>4498</v>
+      </c>
+      <c r="G1177" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1177" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1177" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1177" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1177" t="str">
+        <f t="shared" si="18"/>
+        <v>NK_08_18_22_29_jeɻekʰ</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1178" t="s">
+        <v>4497</v>
+      </c>
+      <c r="B1178" t="s">
+        <v>4496</v>
+      </c>
+      <c r="C1178" t="s">
+        <v>4496</v>
+      </c>
+      <c r="D1178" t="s">
+        <v>4495</v>
+      </c>
+      <c r="F1178" t="s">
+        <v>4494</v>
+      </c>
+      <c r="G1178" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1178" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1178" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1178" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1178" t="str">
+        <f t="shared" si="18"/>
+        <v>NK_08_18_22_30_jeɻekʰ</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1179" t="s">
+        <v>4493</v>
+      </c>
+      <c r="B1179" t="s">
+        <v>4492</v>
+      </c>
+      <c r="C1179" t="s">
+        <v>4492</v>
+      </c>
+      <c r="D1179" t="s">
+        <v>4491</v>
+      </c>
+      <c r="F1179" t="s">
+        <v>4490</v>
+      </c>
+      <c r="G1179" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1179" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1179" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1179" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1179" t="str">
+        <f t="shared" si="18"/>
+        <v>NK_08_18_22_31_jeɻesun-eɻku</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1180" t="s">
+        <v>4489</v>
+      </c>
+      <c r="B1180" t="s">
+        <v>4488</v>
+      </c>
+      <c r="C1180" t="s">
+        <v>4487</v>
+      </c>
+      <c r="D1180" t="s">
+        <v>4486</v>
+      </c>
+      <c r="F1180" t="s">
+        <v>4485</v>
+      </c>
+      <c r="G1180" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1180" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1180" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1180" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1180" t="str">
+        <f t="shared" si="18"/>
+        <v>NK_08_18_22_32_jeɻesun-eɻoɻtʰ</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1181" t="s">
+        <v>4484</v>
+      </c>
+      <c r="B1181" t="s">
+        <v>4483</v>
+      </c>
+      <c r="C1181" t="s">
+        <v>4482</v>
+      </c>
+      <c r="D1181" t="s">
+        <v>4481</v>
+      </c>
+      <c r="F1181" t="s">
+        <v>4480</v>
+      </c>
+      <c r="G1181" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1181" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1181" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1181" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1181" t="str">
+        <f t="shared" si="18"/>
+        <v>NK_08_18_22_33_jeɻesun-hiŋɡ-eɻoɻtʰ</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1182" t="s">
+        <v>4479</v>
+      </c>
+      <c r="B1182" t="s">
+        <v>4478</v>
+      </c>
+      <c r="C1182" t="s">
+        <v>4478</v>
+      </c>
+      <c r="D1182" t="s">
+        <v>4477</v>
+      </c>
+      <c r="F1182" t="s">
+        <v>4476</v>
+      </c>
+      <c r="G1182" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1182" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1182" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1182" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1182" t="str">
+        <f t="shared" si="18"/>
+        <v>NK_08_18_22_34_jeɻesun-hiŋɡ</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1183" t="s">
+        <v>4475</v>
+      </c>
+      <c r="B1183" t="s">
+        <v>4474</v>
+      </c>
+      <c r="C1183" t="s">
+        <v>4473</v>
+      </c>
+      <c r="D1183" t="s">
+        <v>4472</v>
+      </c>
+      <c r="F1183" t="s">
+        <v>4471</v>
+      </c>
+      <c r="G1183" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1183" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1183" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1183" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1183" t="str">
+        <f t="shared" si="18"/>
+        <v>NK_08_18_22_35_jeɻesun-inn-eɻoɻtʰ</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1184" t="s">
+        <v>4470</v>
+      </c>
+      <c r="B1184" t="s">
+        <v>4469</v>
+      </c>
+      <c r="C1184" t="s">
+        <v>4468</v>
+      </c>
+      <c r="D1184" t="s">
+        <v>4467</v>
+      </c>
+      <c r="F1184" t="s">
+        <v>4466</v>
+      </c>
+      <c r="G1184" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1184" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1184" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1184" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1184" t="str">
+        <f t="shared" si="18"/>
+        <v>NK_08_18_22_36_jeɻesun-inn-ə</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1185" t="s">
+        <v>4465</v>
+      </c>
+      <c r="B1185" t="s">
+        <v>4464</v>
+      </c>
+      <c r="C1185" t="s">
+        <v>4463</v>
+      </c>
+      <c r="D1185" t="s">
+        <v>4462</v>
+      </c>
+      <c r="F1185" t="s">
+        <v>4461</v>
+      </c>
+      <c r="G1185" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1185" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1185" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1185" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1185" t="str">
+        <f t="shared" si="18"/>
+        <v>NK_08_18_22_37_jeɻesun-je-ɻoɻtʰ</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1186" t="s">
+        <v>4460</v>
+      </c>
+      <c r="B1186" t="s">
+        <v>4459</v>
+      </c>
+      <c r="C1186" t="s">
+        <v>4458</v>
+      </c>
+      <c r="D1186" t="s">
+        <v>4457</v>
+      </c>
+      <c r="F1186" t="s">
+        <v>4456</v>
+      </c>
+      <c r="G1186" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1186" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1186" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1186" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1186" t="str">
+        <f t="shared" si="18"/>
+        <v>NK_08_18_22_38_jeɻesun-jek-ɻoɻtʰ</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1187" t="s">
+        <v>4455</v>
+      </c>
+      <c r="B1187" t="s">
+        <v>4454</v>
+      </c>
+      <c r="C1187" t="s">
+        <v>4454</v>
+      </c>
+      <c r="D1187" t="s">
+        <v>4453</v>
+      </c>
+      <c r="F1187" t="s">
+        <v>4452</v>
+      </c>
+      <c r="G1187" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1187" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1187" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1187" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1187" t="str">
+        <f t="shared" si="18"/>
+        <v>NK_08_18_22_39_jeɻesun-jeɻekʰ</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1188" t="s">
+        <v>4451</v>
+      </c>
+      <c r="B1188" t="s">
+        <v>4450</v>
+      </c>
+      <c r="C1188" t="s">
+        <v>4449</v>
+      </c>
+      <c r="D1188" t="s">
+        <v>4448</v>
+      </c>
+      <c r="F1188" t="s">
+        <v>4447</v>
+      </c>
+      <c r="G1188" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1188" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1188" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1188" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1188" t="str">
+        <f t="shared" si="18"/>
+        <v>NK_08_18_22_40_jeɻesun-jotʰ-eɻoɻtʰ</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1189" t="s">
+        <v>4446</v>
+      </c>
+      <c r="B1189" t="s">
+        <v>4445</v>
+      </c>
+      <c r="C1189" t="s">
+        <v>4445</v>
+      </c>
+      <c r="D1189" t="s">
+        <v>4444</v>
+      </c>
+      <c r="F1189" t="s">
+        <v>4443</v>
+      </c>
+      <c r="G1189" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1189" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1189" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1189" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1189" t="str">
+        <f t="shared" si="18"/>
+        <v>NK_08_18_22_41_jeɻesun-jotʰ</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1190" t="s">
+        <v>4442</v>
+      </c>
+      <c r="B1190" t="s">
+        <v>4441</v>
+      </c>
+      <c r="C1190" t="s">
+        <v>4440</v>
+      </c>
+      <c r="D1190" t="s">
+        <v>4439</v>
+      </c>
+      <c r="E1190" t="s">
+        <v>4031</v>
+      </c>
+      <c r="F1190" t="s">
+        <v>4438</v>
+      </c>
+      <c r="G1190" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1190" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1190" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1190" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1190" t="str">
+        <f t="shared" si="18"/>
+        <v>NK_08_18_22_42_jeɻesun-mek-eɻoɻtʰ</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1191" t="s">
+        <v>4437</v>
+      </c>
+      <c r="B1191" t="s">
+        <v>4436</v>
+      </c>
+      <c r="C1191" t="s">
+        <v>4436</v>
+      </c>
+      <c r="D1191" t="s">
+        <v>4435</v>
+      </c>
+      <c r="F1191" t="s">
+        <v>4434</v>
+      </c>
+      <c r="G1191" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1191" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1191" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1191" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1191" t="str">
+        <f t="shared" si="18"/>
+        <v>NK_08_18_22_43_jeɻesun-mek</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1192" t="s">
+        <v>4433</v>
+      </c>
+      <c r="B1192" t="s">
+        <v>4432</v>
+      </c>
+      <c r="C1192" t="s">
+        <v>4431</v>
+      </c>
+      <c r="D1192" t="s">
+        <v>4430</v>
+      </c>
+      <c r="F1192" t="s">
+        <v>4429</v>
+      </c>
+      <c r="G1192" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1192" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1192" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1192" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1192" t="str">
+        <f t="shared" si="18"/>
+        <v>NK_08_18_22_44_jeɻesun-t͡ʃʰo-ɻoɻtʰ</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1193" t="s">
+        <v>4428</v>
+      </c>
+      <c r="B1193" t="s">
+        <v>4427</v>
+      </c>
+      <c r="C1193" t="s">
+        <v>4427</v>
+      </c>
+      <c r="D1193" t="s">
+        <v>4426</v>
+      </c>
+      <c r="F1193" t="s">
+        <v>4425</v>
+      </c>
+      <c r="G1193" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1193" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1193" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1193" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1193" t="str">
+        <f t="shared" si="18"/>
+        <v>NK_08_18_22_45_jeɻesun-t͡ʃʰoɻs</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1194" t="s">
+        <v>4424</v>
+      </c>
+      <c r="B1194" t="s">
+        <v>4423</v>
+      </c>
+      <c r="C1194" t="s">
+        <v>4422</v>
+      </c>
+      <c r="D1194" t="s">
+        <v>4421</v>
+      </c>
+      <c r="F1194" t="s">
+        <v>4420</v>
+      </c>
+      <c r="G1194" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1194" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1194" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1194" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1194" t="str">
+        <f t="shared" si="18"/>
+        <v>NK_08_18_22_46_jeɻesun-utʰ-eɻoɻtʰ</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1195" t="s">
+        <v>4419</v>
+      </c>
+      <c r="B1195" t="s">
+        <v>4418</v>
+      </c>
+      <c r="C1195" t="s">
+        <v>4418</v>
+      </c>
+      <c r="D1195" t="s">
+        <v>4417</v>
+      </c>
+      <c r="F1195" t="s">
+        <v>4416</v>
+      </c>
+      <c r="G1195" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1195" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1195" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1195" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1195" t="str">
+        <f t="shared" si="18"/>
+        <v>NK_08_18_22_47_jeɻesun-utʰ</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1196" t="s">
+        <v>4415</v>
+      </c>
+      <c r="B1196" t="s">
+        <v>4414</v>
+      </c>
+      <c r="C1196" t="s">
+        <v>4413</v>
+      </c>
+      <c r="D1196" t="s">
+        <v>4412</v>
+      </c>
+      <c r="F1196" t="s">
+        <v>4411</v>
+      </c>
+      <c r="G1196" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1196" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1196" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1196" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1196" t="str">
+        <f t="shared" si="18"/>
+        <v>NK_08_18_22_48_jeɻesun-vet͡sʰ-eɻoɻtʰ</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1197" t="s">
+        <v>4410</v>
+      </c>
+      <c r="B1197" t="s">
+        <v>4409</v>
+      </c>
+      <c r="C1197" t="s">
+        <v>4409</v>
+      </c>
+      <c r="D1197" t="s">
+        <v>4408</v>
+      </c>
+      <c r="F1197" t="s">
+        <v>4407</v>
+      </c>
+      <c r="G1197" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1197" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1197" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1197" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1197" t="str">
+        <f t="shared" si="18"/>
+        <v>NK_08_18_22_49_jeɻesun-vet͡sʰ</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1198" t="s">
+        <v>4406</v>
+      </c>
+      <c r="B1198" t="s">
+        <v>4405</v>
+      </c>
+      <c r="C1198" t="s">
+        <v>4405</v>
+      </c>
+      <c r="D1198" t="s">
+        <v>4404</v>
+      </c>
+      <c r="F1198" t="s">
+        <v>4403</v>
+      </c>
+      <c r="G1198" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1198" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1198" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1198" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1198" t="str">
+        <f t="shared" si="18"/>
+        <v>NK_08_18_22_50_jeɻesun</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1199" t="s">
+        <v>4402</v>
+      </c>
+      <c r="B1199" t="s">
+        <v>4401</v>
+      </c>
+      <c r="C1199" t="s">
+        <v>4400</v>
+      </c>
+      <c r="D1199" t="s">
+        <v>4399</v>
+      </c>
+      <c r="F1199" t="s">
+        <v>4398</v>
+      </c>
+      <c r="G1199" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1199" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1199" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1199" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1199" t="str">
+        <f t="shared" si="18"/>
+        <v>NK_08_18_22_51_jotʰ-eɻoɻtʰ</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1200" t="s">
+        <v>4396</v>
+      </c>
+      <c r="B1200" t="s">
+        <v>4395</v>
+      </c>
+      <c r="C1200" t="s">
+        <v>4395</v>
+      </c>
+      <c r="D1200" t="s">
+        <v>4394</v>
+      </c>
+      <c r="F1200" t="s">
+        <v>4397</v>
+      </c>
+      <c r="G1200" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1200" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1200" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1200" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1200" t="str">
+        <f t="shared" si="18"/>
+        <v>NK_08_18_22_52_jotʰ</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1201" t="s">
+        <v>4396</v>
+      </c>
+      <c r="B1201" t="s">
+        <v>4395</v>
+      </c>
+      <c r="C1201" t="s">
+        <v>4395</v>
+      </c>
+      <c r="D1201" t="s">
+        <v>4394</v>
+      </c>
+      <c r="F1201" t="s">
+        <v>4393</v>
+      </c>
+      <c r="G1201" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1201" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1201" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1201" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1201" t="str">
+        <f t="shared" si="18"/>
+        <v>NK_08_18_22_53_jotʰ</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1202" t="s">
+        <v>4392</v>
+      </c>
+      <c r="B1202" t="s">
+        <v>4391</v>
+      </c>
+      <c r="C1202" t="s">
+        <v>4390</v>
+      </c>
+      <c r="D1202" t="s">
+        <v>4389</v>
+      </c>
+      <c r="F1202" t="s">
+        <v>4388</v>
+      </c>
+      <c r="G1202" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1202" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1202" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1202" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1202" t="str">
+        <f t="shared" si="18"/>
+        <v>NK_08_18_22_54_jotʰɒnɒsun-eɻoɻtʰ</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1203" t="s">
+        <v>4387</v>
+      </c>
+      <c r="B1203" t="s">
+        <v>4386</v>
+      </c>
+      <c r="C1203" t="s">
+        <v>4386</v>
+      </c>
+      <c r="D1203" t="s">
+        <v>4385</v>
+      </c>
+      <c r="F1203" t="s">
+        <v>4384</v>
+      </c>
+      <c r="G1203" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1203" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1203" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1203" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1203" t="str">
+        <f t="shared" si="18"/>
+        <v>NK_08_18_22_55_jotʰɒnɒsun</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1204" t="s">
+        <v>4383</v>
+      </c>
+      <c r="B1204" t="s">
+        <v>4302</v>
+      </c>
+      <c r="C1204" t="s">
+        <v>4302</v>
+      </c>
+      <c r="D1204" t="s">
+        <v>4301</v>
+      </c>
+      <c r="F1204" t="s">
+        <v>4382</v>
+      </c>
+      <c r="G1204" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1204" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1204" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1204" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1204" t="str">
+        <f t="shared" si="18"/>
+        <v>NK_08_18_22_56_kʰɒrɒsun-eɻku</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1205" t="s">
+        <v>4381</v>
+      </c>
+      <c r="B1205" t="s">
+        <v>4380</v>
+      </c>
+      <c r="C1205" t="s">
+        <v>4379</v>
+      </c>
+      <c r="D1205" t="s">
+        <v>4378</v>
+      </c>
+      <c r="F1205" t="s">
+        <v>4377</v>
+      </c>
+      <c r="G1205" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1205" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1205" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1205" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1205" t="str">
+        <f t="shared" si="18"/>
+        <v>NK_08_18_22_57_kʰɒrɒsun-eɻoɻtʰ</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1206" t="s">
+        <v>4376</v>
+      </c>
+      <c r="B1206" t="s">
+        <v>4375</v>
+      </c>
+      <c r="C1206" t="s">
+        <v>4374</v>
+      </c>
+      <c r="D1206" t="s">
+        <v>4373</v>
+      </c>
+      <c r="F1206" t="s">
+        <v>4372</v>
+      </c>
+      <c r="G1206" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1206" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1206" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1206" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1206" t="str">
+        <f t="shared" si="18"/>
+        <v>NK_08_18_22_58_kʰɒrɒsun-hiŋɡ-eɻoɻtʰ</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1207" t="s">
+        <v>4371</v>
+      </c>
+      <c r="B1207" t="s">
+        <v>4370</v>
+      </c>
+      <c r="C1207" t="s">
+        <v>4370</v>
+      </c>
+      <c r="D1207" t="s">
+        <v>4369</v>
+      </c>
+      <c r="F1207" t="s">
+        <v>4368</v>
+      </c>
+      <c r="G1207" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1207" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1207" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1207" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1207" t="str">
+        <f t="shared" si="18"/>
+        <v>NK_08_18_22_59_kʰɒrɒsun-hiŋɡ</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1208" t="s">
+        <v>4367</v>
+      </c>
+      <c r="B1208" t="s">
+        <v>4366</v>
+      </c>
+      <c r="C1208" t="s">
+        <v>4365</v>
+      </c>
+      <c r="D1208" t="s">
+        <v>4364</v>
+      </c>
+      <c r="F1208" t="s">
+        <v>4363</v>
+      </c>
+      <c r="G1208" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1208" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1208" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1208" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1208" t="str">
+        <f t="shared" si="18"/>
+        <v>NK_08_18_22_60_kʰɒrɒsun-inn-eɻoɻtʰ</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1209" t="s">
+        <v>4362</v>
+      </c>
+      <c r="B1209" t="s">
+        <v>4361</v>
+      </c>
+      <c r="C1209" t="s">
+        <v>4361</v>
+      </c>
+      <c r="D1209" t="s">
+        <v>4360</v>
+      </c>
+      <c r="F1209" t="s">
+        <v>4359</v>
+      </c>
+      <c r="G1209" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1209" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1209" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1209" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1209" t="str">
+        <f t="shared" si="18"/>
+        <v>NK_08_18_22_61_kʰɒrɒsun-inn-ə</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1210" t="s">
+        <v>4357</v>
+      </c>
+      <c r="B1210" t="s">
+        <v>4356</v>
+      </c>
+      <c r="C1210" t="s">
+        <v>4355</v>
+      </c>
+      <c r="D1210" t="s">
+        <v>4354</v>
+      </c>
+      <c r="F1210" t="s">
+        <v>4358</v>
+      </c>
+      <c r="G1210" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1210" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1210" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1210" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1210" t="str">
+        <f t="shared" si="18"/>
+        <v>NK_08_18_22_62_kʰɒrɒsun-je-ɻoɻtʰ</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1211" t="s">
+        <v>4357</v>
+      </c>
+      <c r="B1211" t="s">
+        <v>4356</v>
+      </c>
+      <c r="C1211" t="s">
+        <v>4355</v>
+      </c>
+      <c r="D1211" t="s">
+        <v>4354</v>
+      </c>
+      <c r="F1211" t="s">
+        <v>4353</v>
+      </c>
+      <c r="G1211" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1211" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1211" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1211" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1211" t="str">
+        <f t="shared" si="18"/>
+        <v>NK_08_18_22_63_kʰɒrɒsun-je-ɻoɻtʰ</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1212" t="s">
+        <v>4351</v>
+      </c>
+      <c r="B1212" t="s">
+        <v>4350</v>
+      </c>
+      <c r="C1212" t="s">
+        <v>4349</v>
+      </c>
+      <c r="D1212" t="s">
+        <v>4348</v>
+      </c>
+      <c r="F1212" t="s">
+        <v>4352</v>
+      </c>
+      <c r="G1212" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1212" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1212" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1212" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1212" t="str">
+        <f t="shared" si="18"/>
+        <v>NK_08_18_22_64_kʰɒrɒsun-jek-ɻotʰ</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1213" t="s">
+        <v>4351</v>
+      </c>
+      <c r="B1213" t="s">
+        <v>4350</v>
+      </c>
+      <c r="C1213" t="s">
+        <v>4349</v>
+      </c>
+      <c r="D1213" t="s">
+        <v>4348</v>
+      </c>
+      <c r="F1213" t="s">
+        <v>4347</v>
+      </c>
+      <c r="G1213" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1213" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1213" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1213" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1213" t="str">
+        <f t="shared" si="18"/>
+        <v>NK_08_18_22_65_kʰɒrɒsun-jek-ɻotʰ</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1214" t="s">
+        <v>4346</v>
+      </c>
+      <c r="B1214" t="s">
+        <v>4302</v>
+      </c>
+      <c r="C1214" t="s">
+        <v>4302</v>
+      </c>
+      <c r="D1214" t="s">
+        <v>4301</v>
+      </c>
+      <c r="F1214" t="s">
+        <v>4345</v>
+      </c>
+      <c r="G1214" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1214" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1214" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1214" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1214" t="str">
+        <f t="shared" ref="K1214:K1277" si="19">CONCATENATE("",F1214,"_",A1214)</f>
+        <v>NK_08_18_22_66_kʰɒrɒsun-jeɻekʰ</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1215" t="s">
+        <v>4344</v>
+      </c>
+      <c r="B1215" t="s">
+        <v>4343</v>
+      </c>
+      <c r="C1215" t="s">
+        <v>4342</v>
+      </c>
+      <c r="D1215" t="s">
+        <v>4341</v>
+      </c>
+      <c r="F1215" t="s">
+        <v>4340</v>
+      </c>
+      <c r="G1215" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1215" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1215" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1215" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1215" t="str">
+        <f t="shared" si="19"/>
+        <v>NK_08_18_22_67_kʰɒrɒsun-jotʰ-eɻoɻtʰ</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1216" t="s">
+        <v>4339</v>
+      </c>
+      <c r="B1216" t="s">
+        <v>4338</v>
+      </c>
+      <c r="C1216" t="s">
+        <v>4338</v>
+      </c>
+      <c r="D1216" t="s">
+        <v>4337</v>
+      </c>
+      <c r="F1216" t="s">
+        <v>4336</v>
+      </c>
+      <c r="G1216" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1216" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1216" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1216" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1216" t="str">
+        <f t="shared" si="19"/>
+        <v>NK_08_18_22_68_kʰɒrɒsun-jotʰ</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1217" t="s">
+        <v>4335</v>
+      </c>
+      <c r="B1217" t="s">
+        <v>4334</v>
+      </c>
+      <c r="C1217" t="s">
+        <v>4333</v>
+      </c>
+      <c r="D1217" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F1217" t="s">
+        <v>4331</v>
+      </c>
+      <c r="G1217" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1217" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1217" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1217" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1217" t="str">
+        <f t="shared" si="19"/>
+        <v>NK_08_18_22_69_kʰɒrɒsun-mek-eɻoɻtʰ</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1218" t="s">
+        <v>4330</v>
+      </c>
+      <c r="B1218" t="s">
+        <v>4302</v>
+      </c>
+      <c r="C1218" t="s">
+        <v>4302</v>
+      </c>
+      <c r="D1218" t="s">
+        <v>4301</v>
+      </c>
+      <c r="F1218" t="s">
+        <v>4329</v>
+      </c>
+      <c r="G1218" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1218" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1218" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1218" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1218" t="str">
+        <f t="shared" si="19"/>
+        <v>NK_08_18_22_70_kʰɒrɒsun-mek</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1219" t="s">
+        <v>4328</v>
+      </c>
+      <c r="B1219" t="s">
+        <v>4327</v>
+      </c>
+      <c r="C1219" t="s">
+        <v>4326</v>
+      </c>
+      <c r="D1219" t="s">
+        <v>4325</v>
+      </c>
+      <c r="F1219" t="s">
+        <v>4324</v>
+      </c>
+      <c r="G1219" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1219" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1219" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1219" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1219" t="str">
+        <f t="shared" si="19"/>
+        <v>NK_08_18_22_71_kʰɒrɒsun-t͡ʃʰo-ɻoɻtʰ</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1220" t="s">
+        <v>4323</v>
+      </c>
+      <c r="B1220" t="s">
+        <v>4302</v>
+      </c>
+      <c r="C1220" t="s">
+        <v>4302</v>
+      </c>
+      <c r="D1220" t="s">
+        <v>4301</v>
+      </c>
+      <c r="F1220" t="s">
+        <v>4322</v>
+      </c>
+      <c r="G1220" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1220" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1220" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1220" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1220" t="str">
+        <f t="shared" si="19"/>
+        <v>NK_08_18_22_72_kʰɒrɒsun-t͡ʃʰoɻs</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1221" t="s">
+        <v>4321</v>
+      </c>
+      <c r="B1221" t="s">
+        <v>4320</v>
+      </c>
+      <c r="C1221" t="s">
+        <v>4319</v>
+      </c>
+      <c r="D1221" t="s">
+        <v>4318</v>
+      </c>
+      <c r="F1221" t="s">
+        <v>4317</v>
+      </c>
+      <c r="G1221" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1221" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1221" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1221" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1221" t="str">
+        <f t="shared" si="19"/>
+        <v>NK_08_18_22_73_kʰɒrɒsun-utʰ-eɻoɻtʰ</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1222" t="s">
+        <v>4316</v>
+      </c>
+      <c r="B1222" t="s">
+        <v>4315</v>
+      </c>
+      <c r="C1222" t="s">
+        <v>4315</v>
+      </c>
+      <c r="D1222" t="s">
+        <v>4314</v>
+      </c>
+      <c r="F1222" t="s">
+        <v>4313</v>
+      </c>
+      <c r="G1222" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1222" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1222" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1222" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1222" t="str">
+        <f t="shared" si="19"/>
+        <v>NK_08_18_22_74_kʰɒrɒsun-utʰ</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1223" t="s">
+        <v>4312</v>
+      </c>
+      <c r="B1223" t="s">
+        <v>4311</v>
+      </c>
+      <c r="C1223" t="s">
+        <v>4310</v>
+      </c>
+      <c r="D1223" t="s">
+        <v>4309</v>
+      </c>
+      <c r="F1223" t="s">
+        <v>4308</v>
+      </c>
+      <c r="G1223" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1223" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1223" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1223" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1223" t="str">
+        <f t="shared" si="19"/>
+        <v>NK_08_18_22_75_kʰɒrɒsun-vet͡sʰ-eɻoɻtʰ</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1224" t="s">
+        <v>4307</v>
+      </c>
+      <c r="B1224" t="s">
+        <v>4306</v>
+      </c>
+      <c r="C1224" t="s">
+        <v>4306</v>
+      </c>
+      <c r="D1224" t="s">
+        <v>4305</v>
+      </c>
+      <c r="F1224" t="s">
+        <v>4304</v>
+      </c>
+      <c r="G1224" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1224" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1224" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1224" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1224" t="str">
+        <f t="shared" si="19"/>
+        <v>NK_08_18_22_76_kʰɒrɒsun-vet͡sʰ</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1225" t="s">
+        <v>4303</v>
+      </c>
+      <c r="B1225" t="s">
+        <v>4302</v>
+      </c>
+      <c r="C1225" t="s">
+        <v>4302</v>
+      </c>
+      <c r="D1225" t="s">
+        <v>4301</v>
+      </c>
+      <c r="F1225" t="s">
+        <v>4300</v>
+      </c>
+      <c r="G1225" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1225" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1225" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1225" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1225" t="str">
+        <f t="shared" si="19"/>
+        <v>NK_08_18_22_77_kʰɒrɒsun</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1226" t="s">
+        <v>4299</v>
+      </c>
+      <c r="B1226" t="s">
+        <v>4298</v>
+      </c>
+      <c r="C1226" t="s">
+        <v>4298</v>
+      </c>
+      <c r="D1226" t="s">
+        <v>4297</v>
+      </c>
+      <c r="F1226" t="s">
+        <v>4296</v>
+      </c>
+      <c r="G1226" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1226" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1226" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1226" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1226" t="str">
+        <f t="shared" si="19"/>
+        <v>NK_08_18_22_78_kʰsɒn-eɻku</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1227" t="s">
+        <v>4295</v>
+      </c>
+      <c r="B1227" t="s">
+        <v>4294</v>
+      </c>
+      <c r="C1227" t="s">
+        <v>4293</v>
+      </c>
+      <c r="D1227" t="s">
+        <v>4292</v>
+      </c>
+      <c r="F1227" t="s">
+        <v>4291</v>
+      </c>
+      <c r="G1227" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1227" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1227" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1227" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1227" t="str">
+        <f t="shared" si="19"/>
+        <v>NK_08_18_22_79_kʰsɒn-eɻoɻtʰ</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1228" t="s">
+        <v>4290</v>
+      </c>
+      <c r="B1228" t="s">
+        <v>4289</v>
+      </c>
+      <c r="C1228" t="s">
+        <v>4288</v>
+      </c>
+      <c r="D1228" t="s">
+        <v>4287</v>
+      </c>
+      <c r="F1228" t="s">
+        <v>4286</v>
+      </c>
+      <c r="G1228" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1228" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1228" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1228" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1228" t="str">
+        <f t="shared" si="19"/>
+        <v>NK_08_18_22_80_kʰsɒn-hiŋɡ-eɻoɻtʰ</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1229" t="s">
+        <v>4284</v>
+      </c>
+      <c r="B1229" t="s">
+        <v>4283</v>
+      </c>
+      <c r="C1229" t="s">
+        <v>4283</v>
+      </c>
+      <c r="D1229" t="s">
+        <v>4282</v>
+      </c>
+      <c r="F1229" t="s">
+        <v>4285</v>
+      </c>
+      <c r="G1229" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1229" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1229" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1229" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1229" t="str">
+        <f t="shared" si="19"/>
+        <v>NK_08_18_22_81_kʰsɒn-hiŋɡ</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1230" t="s">
+        <v>4284</v>
+      </c>
+      <c r="B1230" t="s">
+        <v>4283</v>
+      </c>
+      <c r="C1230" t="s">
+        <v>4283</v>
+      </c>
+      <c r="D1230" t="s">
+        <v>4282</v>
+      </c>
+      <c r="F1230" t="s">
+        <v>4281</v>
+      </c>
+      <c r="G1230" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1230" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1230" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1230" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1230" t="str">
+        <f t="shared" si="19"/>
+        <v>NK_08_18_22_82_kʰsɒn-hiŋɡ</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1231" t="s">
+        <v>4280</v>
+      </c>
+      <c r="B1231" t="s">
+        <v>4279</v>
+      </c>
+      <c r="C1231" t="s">
+        <v>4278</v>
+      </c>
+      <c r="D1231" t="s">
+        <v>4277</v>
+      </c>
+      <c r="F1231" t="s">
+        <v>4276</v>
+      </c>
+      <c r="G1231" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1231" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1231" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1231" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1231" t="str">
+        <f t="shared" si="19"/>
+        <v>NK_08_18_22_83_kʰsɒn-inn-eɻoɻtʰ</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1232" t="s">
+        <v>4275</v>
+      </c>
+      <c r="B1232" t="s">
+        <v>4274</v>
+      </c>
+      <c r="C1232" t="s">
+        <v>4273</v>
+      </c>
+      <c r="D1232" t="s">
+        <v>4272</v>
+      </c>
+      <c r="F1232" t="s">
+        <v>4271</v>
+      </c>
+      <c r="G1232" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1232" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1232" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1232" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1232" t="str">
+        <f t="shared" si="19"/>
+        <v>NK_08_18_22_84_kʰsɒn-inn-ə</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1233" t="s">
+        <v>4270</v>
+      </c>
+      <c r="B1233" t="s">
+        <v>4269</v>
+      </c>
+      <c r="C1233" t="s">
+        <v>4268</v>
+      </c>
+      <c r="D1233" t="s">
+        <v>4267</v>
+      </c>
+      <c r="F1233" t="s">
+        <v>4266</v>
+      </c>
+      <c r="G1233" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1233" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1233" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1233" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1233" t="str">
+        <f t="shared" si="19"/>
+        <v>NK_08_18_22_85_kʰsɒn-je-ɻoɻtʰ</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1234" t="s">
+        <v>4265</v>
+      </c>
+      <c r="B1234" t="s">
+        <v>4264</v>
+      </c>
+      <c r="C1234" t="s">
+        <v>4263</v>
+      </c>
+      <c r="D1234" t="s">
+        <v>4262</v>
+      </c>
+      <c r="F1234" t="s">
+        <v>4261</v>
+      </c>
+      <c r="G1234" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1234" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1234" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1234" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1234" t="str">
+        <f t="shared" si="19"/>
+        <v>NK_08_18_22_86_kʰsɒn-jek-ɻoɻtʰ</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1235" t="s">
+        <v>4260</v>
+      </c>
+      <c r="B1235" t="s">
+        <v>4259</v>
+      </c>
+      <c r="C1235" t="s">
+        <v>4259</v>
+      </c>
+      <c r="D1235" t="s">
+        <v>4258</v>
+      </c>
+      <c r="F1235" t="s">
+        <v>4257</v>
+      </c>
+      <c r="G1235" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1235" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1235" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1235" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1235" t="str">
+        <f t="shared" si="19"/>
+        <v>NK_08_18_22_87_kʰsɒn-jeɻekʰ</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1236" t="s">
+        <v>4256</v>
+      </c>
+      <c r="B1236" t="s">
+        <v>4255</v>
+      </c>
+      <c r="C1236" t="s">
+        <v>4254</v>
+      </c>
+      <c r="D1236" t="s">
+        <v>4253</v>
+      </c>
+      <c r="F1236" t="s">
+        <v>4252</v>
+      </c>
+      <c r="G1236" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1236" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1236" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1236" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1236" t="str">
+        <f t="shared" si="19"/>
+        <v>NK_08_18_22_88_kʰsɒn-jotʰ-eɻoɻtʰ</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1237" t="s">
+        <v>4251</v>
+      </c>
+      <c r="B1237" t="s">
+        <v>4250</v>
+      </c>
+      <c r="C1237" t="s">
+        <v>4250</v>
+      </c>
+      <c r="D1237" t="s">
+        <v>4249</v>
+      </c>
+      <c r="F1237" t="s">
+        <v>4248</v>
+      </c>
+      <c r="G1237" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1237" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1237" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1237" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1237" t="str">
+        <f t="shared" si="19"/>
+        <v>NK_08_18_22_89_kʰsɒn-jotʰ</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1238" t="s">
+        <v>4247</v>
+      </c>
+      <c r="B1238" t="s">
+        <v>4246</v>
+      </c>
+      <c r="C1238" t="s">
+        <v>4245</v>
+      </c>
+      <c r="D1238" t="s">
+        <v>4244</v>
+      </c>
+      <c r="F1238" t="s">
+        <v>4243</v>
+      </c>
+      <c r="G1238" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1238" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1238" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1238" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1238" t="str">
+        <f t="shared" si="19"/>
+        <v>NK_08_18_22_90_kʰsɒn-mek-eɻoɻtʰ</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1239" t="s">
+        <v>4242</v>
+      </c>
+      <c r="B1239" t="s">
+        <v>4241</v>
+      </c>
+      <c r="C1239" t="s">
+        <v>4241</v>
+      </c>
+      <c r="D1239" t="s">
+        <v>4240</v>
+      </c>
+      <c r="F1239" t="s">
+        <v>4239</v>
+      </c>
+      <c r="G1239" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1239" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1239" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1239" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1239" t="str">
+        <f t="shared" si="19"/>
+        <v>NK_08_18_22_91_kʰsɒn-mek</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1240" t="s">
+        <v>4238</v>
+      </c>
+      <c r="B1240" t="s">
+        <v>4237</v>
+      </c>
+      <c r="C1240" t="s">
+        <v>4236</v>
+      </c>
+      <c r="D1240" t="s">
+        <v>4235</v>
+      </c>
+      <c r="F1240" t="s">
+        <v>4234</v>
+      </c>
+      <c r="G1240" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1240" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1240" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1240" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1240" t="str">
+        <f t="shared" si="19"/>
+        <v>NK_08_18_22_92_kʰsɒn-t͡ʃʰo-ɻoɻtʰ</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1241" t="s">
+        <v>4233</v>
+      </c>
+      <c r="B1241" t="s">
+        <v>4232</v>
+      </c>
+      <c r="C1241" t="s">
+        <v>4232</v>
+      </c>
+      <c r="D1241" t="s">
+        <v>4231</v>
+      </c>
+      <c r="F1241" t="s">
+        <v>4230</v>
+      </c>
+      <c r="G1241" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1241" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1241" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1241" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1241" t="str">
+        <f t="shared" si="19"/>
+        <v>NK_08_18_22_93_kʰsɒn-t͡ʃʰoɻs</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1242" t="s">
+        <v>4229</v>
+      </c>
+      <c r="B1242" t="s">
+        <v>4228</v>
+      </c>
+      <c r="C1242" t="s">
+        <v>4227</v>
+      </c>
+      <c r="D1242" t="s">
+        <v>4226</v>
+      </c>
+      <c r="F1242" t="s">
+        <v>4225</v>
+      </c>
+      <c r="G1242" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1242" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1242" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1242" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1242" t="str">
+        <f t="shared" si="19"/>
+        <v>NK_08_18_22_94_kʰsɒn-utʰ-eɻoɻtʰ</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1243" t="s">
+        <v>4224</v>
+      </c>
+      <c r="B1243" t="s">
+        <v>4223</v>
+      </c>
+      <c r="C1243" t="s">
+        <v>4223</v>
+      </c>
+      <c r="D1243" t="s">
+        <v>4222</v>
+      </c>
+      <c r="F1243" t="s">
+        <v>4221</v>
+      </c>
+      <c r="G1243" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1243" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1243" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1243" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1243" t="str">
+        <f t="shared" si="19"/>
+        <v>NK_08_18_22_95_kʰsɒn-utʰ</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1244" t="s">
+        <v>4220</v>
+      </c>
+      <c r="B1244" t="s">
+        <v>4219</v>
+      </c>
+      <c r="C1244" t="s">
+        <v>4218</v>
+      </c>
+      <c r="D1244" t="s">
+        <v>4217</v>
+      </c>
+      <c r="E1244" t="s">
+        <v>4031</v>
+      </c>
+      <c r="F1244" t="s">
+        <v>4216</v>
+      </c>
+      <c r="G1244" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1244" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1244" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1244" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1244" t="str">
+        <f t="shared" si="19"/>
+        <v>NK_08_18_22_96_kʰsɒn-vet͡sʰ-eɻoɻtʰ</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1245" t="s">
+        <v>4215</v>
+      </c>
+      <c r="B1245" t="s">
+        <v>4214</v>
+      </c>
+      <c r="C1245" t="s">
+        <v>4214</v>
+      </c>
+      <c r="D1245" t="s">
+        <v>4213</v>
+      </c>
+      <c r="F1245" t="s">
+        <v>4212</v>
+      </c>
+      <c r="G1245" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1245" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1245" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1245" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1245" t="str">
+        <f t="shared" si="19"/>
+        <v>NK_08_18_22_97_kʰsɒn-vet͡sʰ</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1246" t="s">
+        <v>4211</v>
+      </c>
+      <c r="B1246" t="s">
+        <v>4210</v>
+      </c>
+      <c r="C1246" t="s">
+        <v>4210</v>
+      </c>
+      <c r="D1246" t="s">
+        <v>4209</v>
+      </c>
+      <c r="F1246" t="s">
+        <v>4208</v>
+      </c>
+      <c r="G1246" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1246" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1246" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1246" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1246" t="str">
+        <f t="shared" si="19"/>
+        <v>NK_08_18_22_98_kʰsɒn</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1247" t="s">
+        <v>4202</v>
+      </c>
+      <c r="B1247" t="s">
+        <v>4201</v>
+      </c>
+      <c r="C1247" t="s">
+        <v>4201</v>
+      </c>
+      <c r="D1247" t="s">
+        <v>4200</v>
+      </c>
+      <c r="F1247" t="s">
+        <v>4207</v>
+      </c>
+      <c r="G1247" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1247" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1247" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1247" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1247" t="str">
+        <f t="shared" si="19"/>
+        <v>NK_08_18_22_99_mek</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1248" t="s">
+        <v>4202</v>
+      </c>
+      <c r="B1248" t="s">
+        <v>4201</v>
+      </c>
+      <c r="C1248" t="s">
+        <v>4201</v>
+      </c>
+      <c r="D1248" t="s">
+        <v>4200</v>
+      </c>
+      <c r="F1248" t="s">
+        <v>4206</v>
+      </c>
+      <c r="G1248" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1248" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1248" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1248" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1248" t="str">
+        <f t="shared" si="19"/>
+        <v>NK_08_18_22_100_mek</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1249" t="s">
+        <v>4202</v>
+      </c>
+      <c r="B1249" t="s">
+        <v>4201</v>
+      </c>
+      <c r="C1249" t="s">
+        <v>4201</v>
+      </c>
+      <c r="D1249" t="s">
+        <v>4200</v>
+      </c>
+      <c r="F1249" t="s">
+        <v>4205</v>
+      </c>
+      <c r="G1249" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1249" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1249" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1249" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1249" t="str">
+        <f t="shared" si="19"/>
+        <v>NK_08_18_22_101_mek</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1250" t="s">
+        <v>4202</v>
+      </c>
+      <c r="B1250" t="s">
+        <v>4201</v>
+      </c>
+      <c r="C1250" t="s">
+        <v>4201</v>
+      </c>
+      <c r="D1250" t="s">
+        <v>4200</v>
+      </c>
+      <c r="F1250" t="s">
+        <v>4204</v>
+      </c>
+      <c r="G1250" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1250" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1250" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1250" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1250" t="str">
+        <f t="shared" si="19"/>
+        <v>NK_08_18_22_102_mek</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1251" t="s">
+        <v>4202</v>
+      </c>
+      <c r="B1251" t="s">
+        <v>4201</v>
+      </c>
+      <c r="C1251" t="s">
+        <v>4201</v>
+      </c>
+      <c r="D1251" t="s">
+        <v>4200</v>
+      </c>
+      <c r="F1251" t="s">
+        <v>4203</v>
+      </c>
+      <c r="G1251" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1251" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1251" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1251" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1251" t="str">
+        <f t="shared" si="19"/>
+        <v>NK_08_18_22_103_mek</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1252" t="s">
+        <v>4202</v>
+      </c>
+      <c r="B1252" t="s">
+        <v>4201</v>
+      </c>
+      <c r="C1252" t="s">
+        <v>4201</v>
+      </c>
+      <c r="D1252" t="s">
+        <v>4200</v>
+      </c>
+      <c r="F1252" t="s">
+        <v>4199</v>
+      </c>
+      <c r="G1252" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1252" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1252" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1252" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1252" t="str">
+        <f t="shared" si="19"/>
+        <v>NK_08_18_22_104_mek</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1253" t="s">
+        <v>4198</v>
+      </c>
+      <c r="B1253" t="s">
+        <v>4082</v>
+      </c>
+      <c r="C1253" t="s">
+        <v>4081</v>
+      </c>
+      <c r="D1253" t="s">
+        <v>4080</v>
+      </c>
+      <c r="F1253" t="s">
+        <v>4197</v>
+      </c>
+      <c r="G1253" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1253" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1253" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1253" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1253" t="str">
+        <f t="shared" si="19"/>
+        <v>NK_08_18_22_105_tɑs-n-ə-jotʰ</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1254" t="s">
+        <v>4193</v>
+      </c>
+      <c r="B1254" t="s">
+        <v>4192</v>
+      </c>
+      <c r="C1254" t="s">
+        <v>4134</v>
+      </c>
+      <c r="D1254" t="s">
+        <v>4133</v>
+      </c>
+      <c r="F1254" t="s">
+        <v>4196</v>
+      </c>
+      <c r="G1254" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1254" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1254" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1254" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1254" t="str">
+        <f t="shared" si="19"/>
+        <v>NK_08_18_22_106_tɒs-eɻku</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1255" t="s">
+        <v>4193</v>
+      </c>
+      <c r="B1255" t="s">
+        <v>4192</v>
+      </c>
+      <c r="C1255" t="s">
+        <v>4134</v>
+      </c>
+      <c r="D1255" t="s">
+        <v>4133</v>
+      </c>
+      <c r="F1255" t="s">
+        <v>4195</v>
+      </c>
+      <c r="G1255" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1255" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1255" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1255" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1255" t="str">
+        <f t="shared" si="19"/>
+        <v>NK_08_18_22_107_tɒs-eɻku</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1256" t="s">
+        <v>4193</v>
+      </c>
+      <c r="B1256" t="s">
+        <v>4192</v>
+      </c>
+      <c r="C1256" t="s">
+        <v>4134</v>
+      </c>
+      <c r="D1256" t="s">
+        <v>4133</v>
+      </c>
+      <c r="F1256" t="s">
+        <v>4194</v>
+      </c>
+      <c r="G1256" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1256" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1256" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1256" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1256" t="str">
+        <f t="shared" si="19"/>
+        <v>NK_08_18_22_108_tɒs-eɻku</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1257" t="s">
+        <v>4193</v>
+      </c>
+      <c r="B1257" t="s">
+        <v>4192</v>
+      </c>
+      <c r="C1257" t="s">
+        <v>4134</v>
+      </c>
+      <c r="D1257" t="s">
+        <v>4133</v>
+      </c>
+      <c r="F1257" t="s">
+        <v>4191</v>
+      </c>
+      <c r="G1257" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1257" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1257" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1257" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1257" t="str">
+        <f t="shared" si="19"/>
+        <v>NK_08_18_22_109_tɒs-eɻku</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1258" t="s">
+        <v>4189</v>
+      </c>
+      <c r="B1258" t="s">
+        <v>4188</v>
+      </c>
+      <c r="C1258" t="s">
+        <v>4187</v>
+      </c>
+      <c r="D1258" t="s">
+        <v>4186</v>
+      </c>
+      <c r="F1258" t="s">
+        <v>4190</v>
+      </c>
+      <c r="G1258" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1258" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1258" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1258" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1258" t="str">
+        <f t="shared" si="19"/>
+        <v>NK_08_18_22_110_tɒs-eɻoɻtʰ</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1259" t="s">
+        <v>4189</v>
+      </c>
+      <c r="B1259" t="s">
+        <v>4188</v>
+      </c>
+      <c r="C1259" t="s">
+        <v>4187</v>
+      </c>
+      <c r="D1259" t="s">
+        <v>4186</v>
+      </c>
+      <c r="F1259" t="s">
+        <v>4185</v>
+      </c>
+      <c r="G1259" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1259" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1259" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1259" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1259" t="str">
+        <f t="shared" si="19"/>
+        <v>NK_08_18_22_111_tɒs-eɻoɻtʰ</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1260" t="s">
+        <v>4184</v>
+      </c>
+      <c r="B1260" t="s">
+        <v>4183</v>
+      </c>
+      <c r="C1260" t="s">
+        <v>4129</v>
+      </c>
+      <c r="D1260" t="s">
+        <v>4182</v>
+      </c>
+      <c r="F1260" t="s">
+        <v>4181</v>
+      </c>
+      <c r="G1260" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1260" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1260" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1260" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1260" t="str">
+        <f t="shared" si="19"/>
+        <v>NK_08_18_22_112_tɒs-hiŋɡ-eɻoɻtʰ</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1261" t="s">
+        <v>4180</v>
+      </c>
+      <c r="B1261" t="s">
+        <v>4179</v>
+      </c>
+      <c r="C1261" t="s">
+        <v>4123</v>
+      </c>
+      <c r="D1261" t="s">
+        <v>4178</v>
+      </c>
+      <c r="F1261" t="s">
+        <v>4177</v>
+      </c>
+      <c r="G1261" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1261" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1261" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1261" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1261" t="str">
+        <f t="shared" si="19"/>
+        <v>NK_08_18_22_113_tɒs-hiŋɡ</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1262" t="s">
+        <v>4176</v>
+      </c>
+      <c r="B1262" t="s">
+        <v>4175</v>
+      </c>
+      <c r="C1262" t="s">
+        <v>4118</v>
+      </c>
+      <c r="D1262" t="s">
+        <v>4174</v>
+      </c>
+      <c r="F1262" t="s">
+        <v>4173</v>
+      </c>
+      <c r="G1262" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1262" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1262" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1262" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1262" t="str">
+        <f t="shared" si="19"/>
+        <v>NK_08_18_22_114_tɒs-inn-eɻoɻtʰ</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1263" t="s">
+        <v>4172</v>
+      </c>
+      <c r="B1263" t="s">
+        <v>4171</v>
+      </c>
+      <c r="C1263" t="s">
+        <v>4109</v>
+      </c>
+      <c r="D1263" t="s">
+        <v>4170</v>
+      </c>
+      <c r="F1263" t="s">
+        <v>4169</v>
+      </c>
+      <c r="G1263" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1263" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1263" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1263" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1263" t="str">
+        <f t="shared" si="19"/>
+        <v>NK_08_18_22_115_tɒs-inn-ə</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1264" t="s">
+        <v>4167</v>
+      </c>
+      <c r="B1264" t="s">
+        <v>4166</v>
+      </c>
+      <c r="C1264" t="s">
+        <v>4103</v>
+      </c>
+      <c r="D1264" t="s">
+        <v>4165</v>
+      </c>
+      <c r="F1264" t="s">
+        <v>4168</v>
+      </c>
+      <c r="G1264" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1264" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1264" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1264" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1264" t="str">
+        <f t="shared" si="19"/>
+        <v>NK_08_18_22_116_tɒs-je-ɻoɻtʰ</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1265" t="s">
+        <v>4167</v>
+      </c>
+      <c r="B1265" t="s">
+        <v>4166</v>
+      </c>
+      <c r="C1265" t="s">
+        <v>4103</v>
+      </c>
+      <c r="D1265" t="s">
+        <v>4165</v>
+      </c>
+      <c r="F1265" t="s">
+        <v>4164</v>
+      </c>
+      <c r="G1265" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1265" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1265" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1265" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1265" t="str">
+        <f t="shared" si="19"/>
+        <v>NK_08_18_22_117_tɒs-je-ɻoɻtʰ</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1266" t="s">
+        <v>4163</v>
+      </c>
+      <c r="B1266" t="s">
+        <v>4162</v>
+      </c>
+      <c r="C1266" t="s">
+        <v>4097</v>
+      </c>
+      <c r="D1266" t="s">
+        <v>4161</v>
+      </c>
+      <c r="F1266" t="s">
+        <v>4160</v>
+      </c>
+      <c r="G1266" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1266" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1266" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1266" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1266" t="str">
+        <f t="shared" si="19"/>
+        <v>NK_08_18_22_118_tɒs-jek-ɻoɻtʰ</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1267" t="s">
+        <v>4156</v>
+      </c>
+      <c r="B1267" t="s">
+        <v>4155</v>
+      </c>
+      <c r="C1267" t="s">
+        <v>4091</v>
+      </c>
+      <c r="D1267" t="s">
+        <v>4154</v>
+      </c>
+      <c r="F1267" t="s">
+        <v>4159</v>
+      </c>
+      <c r="G1267" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1267" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1267" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1267" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1267" t="str">
+        <f t="shared" si="19"/>
+        <v>NK_08_18_22_119_tɒs-jeɻekʰ</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1268" t="s">
+        <v>4156</v>
+      </c>
+      <c r="B1268" t="s">
+        <v>4155</v>
+      </c>
+      <c r="C1268" t="s">
+        <v>4091</v>
+      </c>
+      <c r="D1268" t="s">
+        <v>4154</v>
+      </c>
+      <c r="F1268" t="s">
+        <v>4158</v>
+      </c>
+      <c r="G1268" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1268" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1268" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1268" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1268" t="str">
+        <f t="shared" si="19"/>
+        <v>NK_08_18_22_120_tɒs-jeɻekʰ</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1269" t="s">
+        <v>4156</v>
+      </c>
+      <c r="B1269" t="s">
+        <v>4155</v>
+      </c>
+      <c r="C1269" t="s">
+        <v>4091</v>
+      </c>
+      <c r="D1269" t="s">
+        <v>4154</v>
+      </c>
+      <c r="F1269" t="s">
+        <v>4157</v>
+      </c>
+      <c r="G1269" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1269" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1269" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1269" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1269" t="str">
+        <f t="shared" si="19"/>
+        <v>NK_08_18_22_121_tɒs-jeɻekʰ</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1270" t="s">
+        <v>4156</v>
+      </c>
+      <c r="B1270" t="s">
+        <v>4155</v>
+      </c>
+      <c r="C1270" t="s">
+        <v>4091</v>
+      </c>
+      <c r="D1270" t="s">
+        <v>4154</v>
+      </c>
+      <c r="F1270" t="s">
+        <v>4153</v>
+      </c>
+      <c r="G1270" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1270" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1270" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1270" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1270" t="str">
+        <f t="shared" si="19"/>
+        <v>NK_08_18_22_122_tɒs-jeɻekʰ</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1271" t="s">
+        <v>4152</v>
+      </c>
+      <c r="B1271" t="s">
+        <v>4151</v>
+      </c>
+      <c r="C1271" t="s">
+        <v>4086</v>
+      </c>
+      <c r="D1271" t="s">
+        <v>4150</v>
+      </c>
+      <c r="F1271" t="s">
+        <v>4149</v>
+      </c>
+      <c r="G1271" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1271" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1271" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1271" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1271" t="str">
+        <f t="shared" si="19"/>
+        <v>NK_08_18_22_123_tɒs-jotʰ-eɻoɻtʰ</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1272" t="s">
+        <v>4148</v>
+      </c>
+      <c r="B1272" t="s">
+        <v>4147</v>
+      </c>
+      <c r="C1272" t="s">
+        <v>4081</v>
+      </c>
+      <c r="D1272" t="s">
+        <v>4146</v>
+      </c>
+      <c r="F1272" t="s">
+        <v>4145</v>
+      </c>
+      <c r="G1272" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1272" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1272" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1272" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1272" t="str">
+        <f t="shared" si="19"/>
+        <v>NK_08_18_22_124_tɒs-jotʰ</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1273" t="s">
+        <v>4144</v>
+      </c>
+      <c r="B1273" t="s">
+        <v>4143</v>
+      </c>
+      <c r="C1273" t="s">
+        <v>4075</v>
+      </c>
+      <c r="D1273" t="s">
+        <v>4142</v>
+      </c>
+      <c r="F1273" t="s">
+        <v>4141</v>
+      </c>
+      <c r="G1273" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1273" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1273" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1273" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1273" t="str">
+        <f t="shared" si="19"/>
+        <v>NK_08_18_22_125_tɒs-mek-eɻoɻtʰ</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1274" t="s">
+        <v>4140</v>
+      </c>
+      <c r="B1274" t="s">
+        <v>4139</v>
+      </c>
+      <c r="C1274" t="s">
+        <v>4067</v>
+      </c>
+      <c r="D1274" t="s">
+        <v>4138</v>
+      </c>
+      <c r="F1274" t="s">
+        <v>4137</v>
+      </c>
+      <c r="G1274" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1274" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1274" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1274" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1274" t="str">
+        <f t="shared" si="19"/>
+        <v>NK_08_18_22_126_tɒs-mek</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1275" t="s">
+        <v>4136</v>
+      </c>
+      <c r="B1275" t="s">
+        <v>4135</v>
+      </c>
+      <c r="C1275" t="s">
+        <v>4134</v>
+      </c>
+      <c r="D1275" t="s">
+        <v>4133</v>
+      </c>
+      <c r="F1275" t="s">
+        <v>4132</v>
+      </c>
+      <c r="G1275" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1275" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1275" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1275" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1275" t="str">
+        <f t="shared" si="19"/>
+        <v>NK_08_18_22_127_tɒs-n-ə-eɻku</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1276" t="s">
+        <v>4131</v>
+      </c>
+      <c r="B1276" t="s">
+        <v>4130</v>
+      </c>
+      <c r="C1276" t="s">
+        <v>4129</v>
+      </c>
+      <c r="D1276" t="s">
+        <v>4128</v>
+      </c>
+      <c r="F1276" t="s">
+        <v>4127</v>
+      </c>
+      <c r="G1276" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1276" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1276" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1276" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1276" t="str">
+        <f t="shared" si="19"/>
+        <v>NK_08_18_22_128_tɒs-n-ə-hiŋɡ-eɻoɻtʰ</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1277" t="s">
+        <v>4125</v>
+      </c>
+      <c r="B1277" t="s">
+        <v>4124</v>
+      </c>
+      <c r="C1277" t="s">
+        <v>4123</v>
+      </c>
+      <c r="D1277" t="s">
+        <v>4122</v>
+      </c>
+      <c r="F1277" t="s">
+        <v>4126</v>
+      </c>
+      <c r="G1277" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1277" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1277" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1277" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1277" t="str">
+        <f t="shared" si="19"/>
+        <v>NK_08_18_22_129_tɒs-n-ə-hiŋɡ</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1278" t="s">
+        <v>4125</v>
+      </c>
+      <c r="B1278" t="s">
+        <v>4124</v>
+      </c>
+      <c r="C1278" t="s">
+        <v>4123</v>
+      </c>
+      <c r="D1278" t="s">
+        <v>4122</v>
+      </c>
+      <c r="F1278" t="s">
+        <v>4121</v>
+      </c>
+      <c r="G1278" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1278" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1278" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1278" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1278" t="str">
+        <f t="shared" ref="K1278:K1333" si="20">CONCATENATE("",F1278,"_",A1278)</f>
+        <v>NK_08_18_22_130_tɒs-n-ə-hiŋɡ</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1279" t="s">
+        <v>4120</v>
+      </c>
+      <c r="B1279" t="s">
+        <v>4119</v>
+      </c>
+      <c r="C1279" t="s">
+        <v>4118</v>
+      </c>
+      <c r="D1279" t="s">
+        <v>4117</v>
+      </c>
+      <c r="F1279" t="s">
+        <v>4116</v>
+      </c>
+      <c r="G1279" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1279" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1279" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1279" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1279" t="str">
+        <f t="shared" si="20"/>
+        <v>NK_08_18_22_131_tɒs-n-ə-inn-eɻoɻtʰ</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1280" t="s">
+        <v>4111</v>
+      </c>
+      <c r="B1280" t="s">
+        <v>4110</v>
+      </c>
+      <c r="C1280" t="s">
+        <v>4109</v>
+      </c>
+      <c r="D1280" t="s">
+        <v>4108</v>
+      </c>
+      <c r="F1280" t="s">
+        <v>4115</v>
+      </c>
+      <c r="G1280" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1280" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1280" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1280" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1280" t="str">
+        <f t="shared" si="20"/>
+        <v>NK_08_18_22_132_tɒs-n-ə-inn-ə</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1281" t="s">
+        <v>4111</v>
+      </c>
+      <c r="B1281" t="s">
+        <v>4110</v>
+      </c>
+      <c r="C1281" t="s">
+        <v>4109</v>
+      </c>
+      <c r="D1281" t="s">
+        <v>4108</v>
+      </c>
+      <c r="F1281" t="s">
+        <v>4114</v>
+      </c>
+      <c r="G1281" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1281" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1281" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1281" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1281" t="str">
+        <f t="shared" si="20"/>
+        <v>NK_08_18_22_133_tɒs-n-ə-inn-ə</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1282" t="s">
+        <v>4111</v>
+      </c>
+      <c r="B1282" t="s">
+        <v>4110</v>
+      </c>
+      <c r="C1282" t="s">
+        <v>4109</v>
+      </c>
+      <c r="D1282" t="s">
+        <v>4108</v>
+      </c>
+      <c r="F1282" t="s">
+        <v>4113</v>
+      </c>
+      <c r="G1282" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1282" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1282" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1282" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1282" t="str">
+        <f t="shared" si="20"/>
+        <v>NK_08_18_22_134_tɒs-n-ə-inn-ə</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1283" t="s">
+        <v>4111</v>
+      </c>
+      <c r="B1283" t="s">
+        <v>4110</v>
+      </c>
+      <c r="C1283" t="s">
+        <v>4109</v>
+      </c>
+      <c r="D1283" t="s">
+        <v>4108</v>
+      </c>
+      <c r="F1283" t="s">
+        <v>4112</v>
+      </c>
+      <c r="G1283" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1283" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1283" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1283" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1283" t="str">
+        <f t="shared" si="20"/>
+        <v>NK_08_18_22_135_tɒs-n-ə-inn-ə</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1284" t="s">
+        <v>4111</v>
+      </c>
+      <c r="B1284" t="s">
+        <v>4110</v>
+      </c>
+      <c r="C1284" t="s">
+        <v>4109</v>
+      </c>
+      <c r="D1284" t="s">
+        <v>4108</v>
+      </c>
+      <c r="F1284" t="s">
+        <v>4107</v>
+      </c>
+      <c r="G1284" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1284" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1284" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1284" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1284" t="str">
+        <f t="shared" si="20"/>
+        <v>NK_08_18_22_136_tɒs-n-ə-inn-ə</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1285" t="s">
+        <v>4105</v>
+      </c>
+      <c r="B1285" t="s">
+        <v>4104</v>
+      </c>
+      <c r="C1285" t="s">
+        <v>4103</v>
+      </c>
+      <c r="D1285" t="s">
+        <v>4102</v>
+      </c>
+      <c r="F1285" t="s">
+        <v>4106</v>
+      </c>
+      <c r="G1285" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1285" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1285" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1285" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1285" t="str">
+        <f t="shared" si="20"/>
+        <v>NK_08_18_22_137_tɒs-n-ə-je-ɻoɻtʰ</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1286" t="s">
+        <v>4105</v>
+      </c>
+      <c r="B1286" t="s">
+        <v>4104</v>
+      </c>
+      <c r="C1286" t="s">
+        <v>4103</v>
+      </c>
+      <c r="D1286" t="s">
+        <v>4102</v>
+      </c>
+      <c r="F1286" t="s">
+        <v>4101</v>
+      </c>
+      <c r="G1286" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1286" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1286" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1286" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1286" t="str">
+        <f t="shared" si="20"/>
+        <v>NK_08_18_22_138_tɒs-n-ə-je-ɻoɻtʰ</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1287" t="s">
+        <v>4099</v>
+      </c>
+      <c r="B1287" t="s">
+        <v>4098</v>
+      </c>
+      <c r="C1287" t="s">
+        <v>4097</v>
+      </c>
+      <c r="D1287" t="s">
+        <v>4096</v>
+      </c>
+      <c r="F1287" t="s">
+        <v>4100</v>
+      </c>
+      <c r="G1287" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1287" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1287" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1287" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1287" t="str">
+        <f t="shared" si="20"/>
+        <v>NK_08_18_22_139_tɒs-n-ə-jek-ɻoɻtʰ</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1288" t="s">
+        <v>4099</v>
+      </c>
+      <c r="B1288" t="s">
+        <v>4098</v>
+      </c>
+      <c r="C1288" t="s">
+        <v>4097</v>
+      </c>
+      <c r="D1288" t="s">
+        <v>4096</v>
+      </c>
+      <c r="F1288" t="s">
+        <v>4095</v>
+      </c>
+      <c r="G1288" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1288" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1288" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1288" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1288" t="str">
+        <f t="shared" si="20"/>
+        <v>NK_08_18_22_140_tɒs-n-ə-jek-ɻoɻtʰ</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1289" t="s">
+        <v>4093</v>
+      </c>
+      <c r="B1289" t="s">
+        <v>4092</v>
+      </c>
+      <c r="C1289" t="s">
+        <v>4091</v>
+      </c>
+      <c r="D1289" t="s">
+        <v>4090</v>
+      </c>
+      <c r="F1289" t="s">
+        <v>4094</v>
+      </c>
+      <c r="G1289" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1289" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1289" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1289" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1289" t="str">
+        <f t="shared" si="20"/>
+        <v>NK_08_18_22_141_tɒs-n-ə-jeɻekʰ</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1290" t="s">
+        <v>4093</v>
+      </c>
+      <c r="B1290" t="s">
+        <v>4092</v>
+      </c>
+      <c r="C1290" t="s">
+        <v>4091</v>
+      </c>
+      <c r="D1290" t="s">
+        <v>4090</v>
+      </c>
+      <c r="F1290" t="s">
+        <v>4089</v>
+      </c>
+      <c r="G1290" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1290" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1290" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1290" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1290" t="str">
+        <f t="shared" si="20"/>
+        <v>NK_08_18_22_142_tɒs-n-ə-jeɻekʰ</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1291" t="s">
+        <v>4088</v>
+      </c>
+      <c r="B1291" t="s">
+        <v>4087</v>
+      </c>
+      <c r="C1291" t="s">
+        <v>4086</v>
+      </c>
+      <c r="D1291" t="s">
+        <v>4085</v>
+      </c>
+      <c r="F1291" t="s">
+        <v>4084</v>
+      </c>
+      <c r="G1291" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1291" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1291" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1291" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1291" t="str">
+        <f t="shared" si="20"/>
+        <v>NK_08_18_22_143_tɒs-n-ə-jotʰ-eɻoɻtʰ</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1292" t="s">
+        <v>4083</v>
+      </c>
+      <c r="B1292" t="s">
+        <v>4082</v>
+      </c>
+      <c r="C1292" t="s">
+        <v>4081</v>
+      </c>
+      <c r="D1292" t="s">
+        <v>4080</v>
+      </c>
+      <c r="F1292" t="s">
+        <v>4079</v>
+      </c>
+      <c r="G1292" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1292" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1292" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1292" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1292" t="str">
+        <f t="shared" si="20"/>
+        <v>NK_08_18_22_144_tɒs-n-ə-jotʰ</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1293" t="s">
+        <v>4077</v>
+      </c>
+      <c r="B1293" t="s">
+        <v>4076</v>
+      </c>
+      <c r="C1293" t="s">
+        <v>4075</v>
+      </c>
+      <c r="D1293" t="s">
+        <v>4074</v>
+      </c>
+      <c r="F1293" t="s">
+        <v>4078</v>
+      </c>
+      <c r="G1293" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1293" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1293" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1293" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1293" t="str">
+        <f t="shared" si="20"/>
+        <v>NK_08_18_22_145_tɒs-n-ə-mek-eɻoɻtʰ</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1294" t="s">
+        <v>4077</v>
+      </c>
+      <c r="B1294" t="s">
+        <v>4076</v>
+      </c>
+      <c r="C1294" t="s">
+        <v>4075</v>
+      </c>
+      <c r="D1294" t="s">
+        <v>4074</v>
+      </c>
+      <c r="F1294" t="s">
+        <v>4073</v>
+      </c>
+      <c r="G1294" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1294" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1294" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1294" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1294" t="str">
+        <f t="shared" si="20"/>
+        <v>NK_08_18_22_146_tɒs-n-ə-mek-eɻoɻtʰ</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1295" t="s">
+        <v>4069</v>
+      </c>
+      <c r="B1295" t="s">
+        <v>4068</v>
+      </c>
+      <c r="C1295" t="s">
+        <v>4067</v>
+      </c>
+      <c r="D1295" t="s">
+        <v>4066</v>
+      </c>
+      <c r="F1295" t="s">
+        <v>4072</v>
+      </c>
+      <c r="G1295" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1295" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1295" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1295" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1295" t="str">
+        <f t="shared" si="20"/>
+        <v>NK_08_18_22_147_tɒs-n-ə-mek</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1296" t="s">
+        <v>4069</v>
+      </c>
+      <c r="B1296" t="s">
+        <v>4068</v>
+      </c>
+      <c r="C1296" t="s">
+        <v>4067</v>
+      </c>
+      <c r="D1296" t="s">
+        <v>4066</v>
+      </c>
+      <c r="F1296" t="s">
+        <v>4071</v>
+      </c>
+      <c r="G1296" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1296" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1296" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1296" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1296" t="str">
+        <f t="shared" si="20"/>
+        <v>NK_08_18_22_148_tɒs-n-ə-mek</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1297" t="s">
+        <v>4069</v>
+      </c>
+      <c r="B1297" t="s">
+        <v>4068</v>
+      </c>
+      <c r="C1297" t="s">
+        <v>4067</v>
+      </c>
+      <c r="D1297" t="s">
+        <v>4066</v>
+      </c>
+      <c r="F1297" t="s">
+        <v>4070</v>
+      </c>
+      <c r="G1297" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1297" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1297" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1297" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1297" t="str">
+        <f t="shared" si="20"/>
+        <v>NK_08_18_22_149_tɒs-n-ə-mek</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1298" t="s">
+        <v>4069</v>
+      </c>
+      <c r="B1298" t="s">
+        <v>4068</v>
+      </c>
+      <c r="C1298" t="s">
+        <v>4067</v>
+      </c>
+      <c r="D1298" t="s">
+        <v>4066</v>
+      </c>
+      <c r="F1298" t="s">
+        <v>4065</v>
+      </c>
+      <c r="G1298" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1298" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1298" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1298" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1298" t="str">
+        <f t="shared" si="20"/>
+        <v>NK_08_18_22_150_tɒs-n-ə-mek</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1299" t="s">
+        <v>4064</v>
+      </c>
+      <c r="B1299" t="s">
+        <v>4063</v>
+      </c>
+      <c r="C1299" t="s">
+        <v>4033</v>
+      </c>
+      <c r="D1299" t="s">
+        <v>4062</v>
+      </c>
+      <c r="F1299" t="s">
+        <v>4061</v>
+      </c>
+      <c r="G1299" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1299" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1299" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1299" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1299" t="str">
+        <f t="shared" si="20"/>
+        <v>NK_08_18_22_151_tɒs-n-ə-t͡ʃʰo-ɻoɻtʰ</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1300" t="s">
+        <v>4058</v>
+      </c>
+      <c r="B1300" t="s">
+        <v>4057</v>
+      </c>
+      <c r="C1300" t="s">
+        <v>4027</v>
+      </c>
+      <c r="D1300" t="s">
+        <v>4056</v>
+      </c>
+      <c r="F1300" t="s">
+        <v>4060</v>
+      </c>
+      <c r="G1300" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1300" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1300" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1300" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1300" t="str">
+        <f t="shared" si="20"/>
+        <v>NK_08_18_22_152_tɒs-n-ə-t͡ʃʰoɻs</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1301" t="s">
+        <v>4058</v>
+      </c>
+      <c r="B1301" t="s">
+        <v>4057</v>
+      </c>
+      <c r="C1301" t="s">
+        <v>4027</v>
+      </c>
+      <c r="D1301" t="s">
+        <v>4056</v>
+      </c>
+      <c r="F1301" t="s">
+        <v>4059</v>
+      </c>
+      <c r="G1301" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1301" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1301" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1301" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1301" t="str">
+        <f t="shared" si="20"/>
+        <v>NK_08_18_22_153_tɒs-n-ə-t͡ʃʰoɻs</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1302" t="s">
+        <v>4058</v>
+      </c>
+      <c r="B1302" t="s">
+        <v>4057</v>
+      </c>
+      <c r="C1302" t="s">
+        <v>4027</v>
+      </c>
+      <c r="D1302" t="s">
+        <v>4056</v>
+      </c>
+      <c r="F1302" t="s">
+        <v>4055</v>
+      </c>
+      <c r="G1302" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1302" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1302" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1302" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1302" t="str">
+        <f t="shared" si="20"/>
+        <v>NK_08_18_22_154_tɒs-n-ə-t͡ʃʰoɻs</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1303" t="s">
+        <v>4054</v>
+      </c>
+      <c r="B1303" t="s">
+        <v>4053</v>
+      </c>
+      <c r="C1303" t="s">
+        <v>4022</v>
+      </c>
+      <c r="D1303" t="s">
+        <v>4052</v>
+      </c>
+      <c r="F1303" t="s">
+        <v>4051</v>
+      </c>
+      <c r="G1303" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1303" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1303" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1303" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1303" t="str">
+        <f t="shared" si="20"/>
+        <v>NK_08_18_22_155_tɒs-n-ə-utʰ-eɻoɻtʰ</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1304" t="s">
+        <v>4048</v>
+      </c>
+      <c r="B1304" t="s">
+        <v>4047</v>
+      </c>
+      <c r="C1304" t="s">
+        <v>4015</v>
+      </c>
+      <c r="D1304" t="s">
+        <v>4046</v>
+      </c>
+      <c r="F1304" t="s">
+        <v>4050</v>
+      </c>
+      <c r="G1304" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1304" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1304" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1304" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1304" t="str">
+        <f t="shared" si="20"/>
+        <v>NK_08_18_22_156_tɒs-n-ə-utʰ</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1305" t="s">
+        <v>4048</v>
+      </c>
+      <c r="B1305" t="s">
+        <v>4047</v>
+      </c>
+      <c r="C1305" t="s">
+        <v>4015</v>
+      </c>
+      <c r="D1305" t="s">
+        <v>4046</v>
+      </c>
+      <c r="F1305" t="s">
+        <v>4049</v>
+      </c>
+      <c r="G1305" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1305" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1305" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1305" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1305" t="str">
+        <f t="shared" si="20"/>
+        <v>NK_08_18_22_157_tɒs-n-ə-utʰ</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1306" t="s">
+        <v>4048</v>
+      </c>
+      <c r="B1306" t="s">
+        <v>4047</v>
+      </c>
+      <c r="C1306" t="s">
+        <v>4015</v>
+      </c>
+      <c r="D1306" t="s">
+        <v>4046</v>
+      </c>
+      <c r="F1306" t="s">
+        <v>4045</v>
+      </c>
+      <c r="G1306" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1306" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1306" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1306" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1306" t="str">
+        <f t="shared" si="20"/>
+        <v>NK_08_18_22_158_tɒs-n-ə-utʰ</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1307" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B1307" t="s">
+        <v>4043</v>
+      </c>
+      <c r="C1307" t="s">
+        <v>4010</v>
+      </c>
+      <c r="D1307" t="s">
+        <v>4042</v>
+      </c>
+      <c r="E1307" t="s">
+        <v>4031</v>
+      </c>
+      <c r="F1307" t="s">
+        <v>4041</v>
+      </c>
+      <c r="G1307" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1307" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1307" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1307" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1307" t="str">
+        <f t="shared" si="20"/>
+        <v>NK_08_18_22_159_tɒs-n-ə-vet͡sʰ-eɻoɻtʰ</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1308" t="s">
+        <v>4039</v>
+      </c>
+      <c r="B1308" t="s">
+        <v>4038</v>
+      </c>
+      <c r="C1308" t="s">
+        <v>4003</v>
+      </c>
+      <c r="D1308" t="s">
+        <v>4037</v>
+      </c>
+      <c r="F1308" t="s">
+        <v>4040</v>
+      </c>
+      <c r="G1308" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1308" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1308" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1308" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1308" t="str">
+        <f t="shared" si="20"/>
+        <v>NK_08_18_22_160_tɒs-n-ə-vet͡sʰ</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1309" t="s">
+        <v>4039</v>
+      </c>
+      <c r="B1309" t="s">
+        <v>4038</v>
+      </c>
+      <c r="C1309" t="s">
+        <v>4003</v>
+      </c>
+      <c r="D1309" t="s">
+        <v>4037</v>
+      </c>
+      <c r="F1309" t="s">
+        <v>4036</v>
+      </c>
+      <c r="G1309" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1309" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1309" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1309" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1309" t="str">
+        <f t="shared" si="20"/>
+        <v>NK_08_18_22_161_tɒs-n-ə-vet͡sʰ</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1310" t="s">
+        <v>4035</v>
+      </c>
+      <c r="B1310" t="s">
+        <v>4034</v>
+      </c>
+      <c r="C1310" t="s">
+        <v>4033</v>
+      </c>
+      <c r="D1310" t="s">
+        <v>4032</v>
+      </c>
+      <c r="E1310" t="s">
+        <v>4031</v>
+      </c>
+      <c r="F1310" t="s">
+        <v>4030</v>
+      </c>
+      <c r="G1310" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1310" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1310" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1310" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1310" t="str">
+        <f t="shared" si="20"/>
+        <v>NK_08_18_22_162_tɒs-t͡ʃʰo-ɻoɻtʰ</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1311" t="s">
+        <v>4029</v>
+      </c>
+      <c r="B1311" t="s">
+        <v>4028</v>
+      </c>
+      <c r="C1311" t="s">
+        <v>4027</v>
+      </c>
+      <c r="D1311" t="s">
+        <v>4026</v>
+      </c>
+      <c r="F1311" t="s">
+        <v>4025</v>
+      </c>
+      <c r="G1311" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1311" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1311" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1311" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1311" t="str">
+        <f t="shared" si="20"/>
+        <v>NK_08_18_22_163_tɒs-t͡ʃʰoɻs</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1312" t="s">
+        <v>4024</v>
+      </c>
+      <c r="B1312" t="s">
+        <v>4023</v>
+      </c>
+      <c r="C1312" t="s">
+        <v>4022</v>
+      </c>
+      <c r="D1312" t="s">
+        <v>4021</v>
+      </c>
+      <c r="F1312" t="s">
+        <v>4020</v>
+      </c>
+      <c r="G1312" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1312" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1312" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1312" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1312" t="str">
+        <f t="shared" si="20"/>
+        <v>NK_08_18_22_164_tɒs-utʰ-eɻoɻtʰ</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1313" t="s">
+        <v>4017</v>
+      </c>
+      <c r="B1313" t="s">
+        <v>4016</v>
+      </c>
+      <c r="C1313" t="s">
+        <v>4015</v>
+      </c>
+      <c r="D1313" t="s">
+        <v>4014</v>
+      </c>
+      <c r="F1313" t="s">
+        <v>4019</v>
+      </c>
+      <c r="G1313" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1313" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1313" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1313" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1313" t="str">
+        <f t="shared" si="20"/>
+        <v>NK_08_18_22_165_tɒs-utʰ</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1314" t="s">
+        <v>4017</v>
+      </c>
+      <c r="B1314" t="s">
+        <v>4016</v>
+      </c>
+      <c r="C1314" t="s">
+        <v>4015</v>
+      </c>
+      <c r="D1314" t="s">
+        <v>4014</v>
+      </c>
+      <c r="F1314" t="s">
+        <v>4018</v>
+      </c>
+      <c r="G1314" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1314" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1314" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1314" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1314" t="str">
+        <f t="shared" si="20"/>
+        <v>NK_08_18_22_166_tɒs-utʰ</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1315" t="s">
+        <v>4017</v>
+      </c>
+      <c r="B1315" t="s">
+        <v>4016</v>
+      </c>
+      <c r="C1315" t="s">
+        <v>4015</v>
+      </c>
+      <c r="D1315" t="s">
+        <v>4014</v>
+      </c>
+      <c r="F1315" t="s">
+        <v>4013</v>
+      </c>
+      <c r="G1315" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1315" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1315" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1315" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1315" t="str">
+        <f t="shared" si="20"/>
+        <v>NK_08_18_22_167_tɒs-utʰ</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1316" t="s">
+        <v>4012</v>
+      </c>
+      <c r="B1316" t="s">
+        <v>4011</v>
+      </c>
+      <c r="C1316" t="s">
+        <v>4010</v>
+      </c>
+      <c r="D1316" t="s">
+        <v>4009</v>
+      </c>
+      <c r="F1316" t="s">
+        <v>4008</v>
+      </c>
+      <c r="G1316" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1316" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1316" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1316" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1316" t="str">
+        <f t="shared" si="20"/>
+        <v>NK_08_18_22_168_tɒs-vet͡sʰ-eɻoɻtʰ</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1317" t="s">
+        <v>4005</v>
+      </c>
+      <c r="B1317" t="s">
+        <v>4004</v>
+      </c>
+      <c r="C1317" t="s">
+        <v>4003</v>
+      </c>
+      <c r="D1317" t="s">
+        <v>4002</v>
+      </c>
+      <c r="F1317" t="s">
+        <v>4007</v>
+      </c>
+      <c r="G1317" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1317" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1317" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1317" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1317" t="str">
+        <f t="shared" si="20"/>
+        <v>NK_08_18_22_169_tɒs-vet͡sʰ</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1318" t="s">
+        <v>4005</v>
+      </c>
+      <c r="B1318" t="s">
+        <v>4004</v>
+      </c>
+      <c r="C1318" t="s">
+        <v>4003</v>
+      </c>
+      <c r="D1318" t="s">
+        <v>4002</v>
+      </c>
+      <c r="F1318" t="s">
+        <v>4006</v>
+      </c>
+      <c r="G1318" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1318" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1318" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1318" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1318" t="str">
+        <f t="shared" si="20"/>
+        <v>NK_08_18_22_170_tɒs-vet͡sʰ</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1319" t="s">
+        <v>4005</v>
+      </c>
+      <c r="B1319" t="s">
+        <v>4004</v>
+      </c>
+      <c r="C1319" t="s">
+        <v>4003</v>
+      </c>
+      <c r="D1319" t="s">
+        <v>4002</v>
+      </c>
+      <c r="F1319" t="s">
+        <v>4001</v>
+      </c>
+      <c r="G1319" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1319" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1319" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1319" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1319" t="str">
+        <f t="shared" si="20"/>
+        <v>NK_08_18_22_171_tɒs-vet͡sʰ</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1320" t="s">
+        <v>3998</v>
+      </c>
+      <c r="B1320" t="s">
+        <v>3997</v>
+      </c>
+      <c r="C1320" t="s">
+        <v>3997</v>
+      </c>
+      <c r="D1320" t="s">
+        <v>3996</v>
+      </c>
+      <c r="F1320" t="s">
+        <v>4000</v>
+      </c>
+      <c r="G1320" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1320" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1320" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1320" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1320" t="str">
+        <f t="shared" si="20"/>
+        <v>NK_08_18_22_172_tɒs</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1321" t="s">
+        <v>3998</v>
+      </c>
+      <c r="B1321" t="s">
+        <v>3997</v>
+      </c>
+      <c r="C1321" t="s">
+        <v>3997</v>
+      </c>
+      <c r="D1321" t="s">
+        <v>3996</v>
+      </c>
+      <c r="F1321" t="s">
+        <v>3999</v>
+      </c>
+      <c r="G1321" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1321" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1321" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1321" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1321" t="str">
+        <f t="shared" si="20"/>
+        <v>NK_08_18_22_173_tɒs</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1322" t="s">
+        <v>3998</v>
+      </c>
+      <c r="B1322" t="s">
+        <v>3997</v>
+      </c>
+      <c r="C1322" t="s">
+        <v>3997</v>
+      </c>
+      <c r="D1322" t="s">
+        <v>3996</v>
+      </c>
+      <c r="F1322" t="s">
+        <v>3995</v>
+      </c>
+      <c r="G1322" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1322" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1322" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1322" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1322" t="str">
+        <f t="shared" si="20"/>
+        <v>NK_08_18_22_174_tɒs</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1323" t="s">
+        <v>3994</v>
+      </c>
+      <c r="B1323" t="s">
+        <v>3993</v>
+      </c>
+      <c r="C1323" t="s">
+        <v>3992</v>
+      </c>
+      <c r="D1323" t="s">
+        <v>3991</v>
+      </c>
+      <c r="F1323" t="s">
+        <v>3990</v>
+      </c>
+      <c r="G1323" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1323" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1323" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1323" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1323" t="str">
+        <f t="shared" si="20"/>
+        <v>NK_08_18_22_175_t͡ʃʰo-ɻoɻtʰ</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1324" t="s">
+        <v>3989</v>
+      </c>
+      <c r="B1324" t="s">
+        <v>3988</v>
+      </c>
+      <c r="C1324" t="s">
+        <v>3988</v>
+      </c>
+      <c r="D1324" t="s">
+        <v>3987</v>
+      </c>
+      <c r="F1324" t="s">
+        <v>3986</v>
+      </c>
+      <c r="G1324" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1324" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1324" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1324" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1324" t="str">
+        <f t="shared" si="20"/>
+        <v>NK_08_18_22_176_t͡ʃʰoɻs</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1325" t="s">
+        <v>3985</v>
+      </c>
+      <c r="B1325" t="s">
+        <v>3959</v>
+      </c>
+      <c r="C1325" t="s">
+        <v>3958</v>
+      </c>
+      <c r="D1325" t="s">
+        <v>3984</v>
+      </c>
+      <c r="F1325" t="s">
+        <v>3983</v>
+      </c>
+      <c r="G1325" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1325" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1325" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1325" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1325" t="str">
+        <f t="shared" si="20"/>
+        <v>NK_08_18_22_177_utʰ-eɻoɻtʰ</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1326" t="s">
+        <v>3982</v>
+      </c>
+      <c r="B1326" t="s">
+        <v>3981</v>
+      </c>
+      <c r="C1326" t="s">
+        <v>3980</v>
+      </c>
+      <c r="D1326" t="s">
+        <v>3979</v>
+      </c>
+      <c r="F1326" t="s">
+        <v>3978</v>
+      </c>
+      <c r="G1326" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1326" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1326" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1326" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1326" t="str">
+        <f t="shared" si="20"/>
+        <v>NK_08_18_22_178_utʰ-sun-eɻoɻtʰ</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1327" t="s">
+        <v>3977</v>
+      </c>
+      <c r="B1327" t="s">
+        <v>3976</v>
+      </c>
+      <c r="C1327" t="s">
+        <v>3976</v>
+      </c>
+      <c r="D1327" t="s">
+        <v>3975</v>
+      </c>
+      <c r="F1327" t="s">
+        <v>3974</v>
+      </c>
+      <c r="G1327" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1327" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1327" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1327" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1327" t="str">
+        <f t="shared" si="20"/>
+        <v>NK_08_18_22_179_utʰ</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1328" t="s">
+        <v>3973</v>
+      </c>
+      <c r="B1328" t="s">
+        <v>3972</v>
+      </c>
+      <c r="C1328" t="s">
+        <v>3972</v>
+      </c>
+      <c r="D1328" t="s">
+        <v>3971</v>
+      </c>
+      <c r="F1328" t="s">
+        <v>3970</v>
+      </c>
+      <c r="G1328" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1328" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1328" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1328" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1328" t="str">
+        <f t="shared" si="20"/>
+        <v>NK_08_18_22_180_utʰsun</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1329" t="s">
+        <v>3969</v>
+      </c>
+      <c r="B1329" t="s">
+        <v>3968</v>
+      </c>
+      <c r="C1329" t="s">
+        <v>3968</v>
+      </c>
+      <c r="D1329" t="s">
+        <v>3967</v>
+      </c>
+      <c r="F1329" t="s">
+        <v>3966</v>
+      </c>
+      <c r="G1329" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1329" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1329" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1329" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1329" t="str">
+        <f t="shared" si="20"/>
+        <v>NK_08_18_22_181_vat͡sʰun</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1330" t="s">
+        <v>3965</v>
+      </c>
+      <c r="B1330" t="s">
+        <v>3964</v>
+      </c>
+      <c r="C1330" t="s">
+        <v>3963</v>
+      </c>
+      <c r="D1330" t="s">
+        <v>3962</v>
+      </c>
+      <c r="F1330" t="s">
+        <v>3961</v>
+      </c>
+      <c r="G1330" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1330" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1330" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1330" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1330" t="str">
+        <f t="shared" si="20"/>
+        <v>NK_08_18_22_182_vɒt͡sʰun-eɻoɻtʰ</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1331" t="s">
+        <v>3960</v>
+      </c>
+      <c r="B1331" t="s">
+        <v>3959</v>
+      </c>
+      <c r="C1331" t="s">
+        <v>3958</v>
+      </c>
+      <c r="D1331" t="s">
+        <v>3957</v>
+      </c>
+      <c r="F1331" t="s">
+        <v>3956</v>
+      </c>
+      <c r="G1331" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1331" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1331" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1331" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1331" t="str">
+        <f t="shared" si="20"/>
+        <v>NK_08_18_22_183_vet͡sʰ-eɻoɻtʰ</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1332" t="s">
+        <v>3954</v>
+      </c>
+      <c r="B1332" t="s">
+        <v>3953</v>
+      </c>
+      <c r="C1332" t="s">
+        <v>3953</v>
+      </c>
+      <c r="D1332" t="s">
+        <v>3952</v>
+      </c>
+      <c r="F1332" t="s">
+        <v>3955</v>
+      </c>
+      <c r="G1332" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1332" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1332" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1332" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1332" t="str">
+        <f t="shared" si="20"/>
+        <v>NK_08_18_22_184_vet͡sʰ</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1333" t="s">
+        <v>3954</v>
+      </c>
+      <c r="B1333" t="s">
+        <v>3953</v>
+      </c>
+      <c r="C1333" t="s">
+        <v>3953</v>
+      </c>
+      <c r="D1333" t="s">
+        <v>3952</v>
+      </c>
+      <c r="F1333" t="s">
+        <v>3951</v>
+      </c>
+      <c r="G1333" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H1333" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I1333" t="s">
+        <v>4583</v>
+      </c>
+      <c r="J1333" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K1333" t="str">
+        <f t="shared" si="20"/>
+        <v>NK_08_18_22_185_vet͡sʰ</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:K1148">
     <sortCondition ref="F6:F1148"/>
